--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_12_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_12_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>602133.4907214156</v>
+        <v>596737.2359042076</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9438528.731709804</v>
+        <v>9438528.73170981</v>
       </c>
     </row>
     <row r="9">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.737342620279397e-12</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.312946835369725e-12</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>316.2706063149496</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="F11" t="n">
-        <v>341.7602787893056</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="G11" t="n">
-        <v>341.7602787893056</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>186.1713860068068</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>114.8510675508136</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>341.7602787893056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>107.2186636664477</v>
       </c>
       <c r="C12" t="n">
         <v>149.1476881355087</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8.475159690333342</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>63.26005794734997</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T12" t="n">
         <v>170.4822098874772</v>
@@ -1511,13 +1511,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>27.42673824950986</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>39.05968819712359</v>
       </c>
     </row>
     <row r="14">
@@ -1609,17 +1609,17 @@
         <v>341.7602787893056</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>63.25092958142219</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>341.7602787893056</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.0196767335278</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>301.0224535576205</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>341.7602787893056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,22 +1688,22 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>117.6852892315554</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>76.07674487096699</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>8.475159690333328</v>
@@ -1739,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>72.64736353122971</v>
+        <v>146.5987228719565</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.8852796172697</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
         <v>187.4140068734885</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.539209412640738</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>229.1567118763024</v>
+        <v>102.6290706226987</v>
       </c>
       <c r="U16" t="n">
         <v>282.530721081746</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>341.7602787893056</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>341.7602787893056</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>341.7602787893056</v>
       </c>
       <c r="G17" t="n">
-        <v>341.7602787893057</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>341.7602787893057</v>
+        <v>301.0224535576205</v>
       </c>
       <c r="X17" t="n">
-        <v>304.0969911434091</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>8.475159690333328</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>11.51669689173551</v>
       </c>
       <c r="T18" t="n">
-        <v>155.0738825622903</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>207.8852796172697</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>16.38261212677357</v>
       </c>
       <c r="G19" t="n">
         <v>165.5873294507275</v>
@@ -2022,7 +2022,7 @@
         <v>145.1734758482728</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>78.40949199263522</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>183.6362815515982</v>
       </c>
       <c r="T19" t="n">
-        <v>68.78308908572403</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>341.7602787893055</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>341.7602787893055</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>341.7602787893056</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>189.2459235925957</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>114.8510675508137</v>
       </c>
       <c r="T20" t="n">
-        <v>186.1713860068067</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>341.7602787893056</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>341.7602787893055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>8.475159690333328</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>111.7761258521111</v>
+        <v>108.6763787513249</v>
       </c>
       <c r="T21" t="n">
         <v>170.4822098874772</v>
       </c>
       <c r="U21" t="n">
-        <v>207.8852796172697</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>88.60294031592879</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>183.6362815515982</v>
+        <v>147.0594261641938</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U22" t="n">
         <v>282.530721081746</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>197.5164767341333</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>165.5809458641965</v>
       </c>
       <c r="G23" t="n">
         <v>406.8370587541321</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>211.6610584811623</v>
@@ -2380,7 +2380,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>3.225537529118348</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>68.55735357655031</v>
       </c>
       <c r="H25" t="n">
-        <v>145.1734758482728</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>78.40949199263522</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>229.1567118763024</v>
@@ -2535,16 +2535,16 @@
         <v>282.530721081746</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>98.58217908936587</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>406.8370587541321</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>253.0196767335278</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>154.3420228479866</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -2623,7 +2623,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>131.621802623067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5873294507275</v>
       </c>
       <c r="H28" t="n">
-        <v>105.0764855884606</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>282.530721081746</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>220.7117811938816</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>108.1400550198442</v>
+        <v>406.8370587541321</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>114.8510675508137</v>
+        <v>33.00526400483492</v>
       </c>
       <c r="T29" t="n">
         <v>211.6610584811623</v>
       </c>
       <c r="U29" t="n">
-        <v>253.0196767335278</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>142.5969643729442</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>4.761456193259985</v>
+        <v>229.1567118763024</v>
       </c>
       <c r="U31" t="n">
         <v>282.530721081746</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>321.4874754189848</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>406.8370587541321</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>52.36689279964234</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T32" t="n">
         <v>211.6610584811623</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0196767335278</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>104.6892640371882</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3189,13 +3189,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>127.7440926232262</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>58.1354653987034</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T34" t="n">
         <v>229.1567118763024</v>
       </c>
       <c r="U34" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -3265,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>341.7602787893055</v>
       </c>
-      <c r="E35" t="n">
-        <v>301.0224535576202</v>
-      </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>186.1713860068063</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>114.8510675508137</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>341.7602787893055</v>
-      </c>
-      <c r="G35" t="n">
-        <v>341.7602787893055</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3356,7 +3356,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3398,19 +3398,19 @@
         <v>111.7761258521111</v>
       </c>
       <c r="T36" t="n">
-        <v>170.4822098874772</v>
+        <v>120.3149046145778</v>
       </c>
       <c r="U36" t="n">
-        <v>207.8852796172697</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>45.04743824361677</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5873294507275</v>
+        <v>161.2815163360671</v>
       </c>
       <c r="H37" t="n">
         <v>145.1734758482728</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>33.44243833011575</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>341.7602787893057</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>301.0224535576203</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>92.43593266224678</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-3.958184084211591e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>341.7602787893057</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="Y38" t="n">
-        <v>341.7602787893057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>80.7008264399709</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>111.7761258521111</v>
       </c>
       <c r="T39" t="n">
         <v>170.4822098874772</v>
       </c>
       <c r="U39" t="n">
-        <v>192.4769522920827</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>85.57405161281771</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>258.5042733727241</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>178.1019971322359</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="F41" t="n">
-        <v>341.7602787893057</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>253.0196767335278</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>181.1765347180248</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>123.1874880556995</v>
@@ -3836,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>76.07674487096699</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.475159690333328</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>170.4822098874772</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>163.3893173913729</v>
       </c>
       <c r="V42" t="n">
-        <v>47.06848391603961</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
         <v>227.816073408046</v>
@@ -3887,7 +3887,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>5.839175264884662</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>145.1734758482728</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>181.9858846845862</v>
       </c>
       <c r="U43" t="n">
         <v>282.530721081746</v>
@@ -3960,13 +3960,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>301.0224535576202</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>341.7602787893055</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>341.7602787893055</v>
       </c>
       <c r="F44" t="n">
-        <v>301.0224535576203</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="G44" t="n">
         <v>341.7602787893055</v>
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>31.88639450659008</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>50.31813921006345</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>76.07674487096699</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>8.475159690333342</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>170.4822098874772</v>
       </c>
       <c r="U45" t="n">
         <v>207.8852796172697</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>18.99457612962004</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5873294507275</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>145.1734758482728</v>
+        <v>112.4637246342689</v>
       </c>
       <c r="I46" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>78.40949199263522</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.58641351077428e-12</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.58641351077428e-12</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>5.58641351077428e-12</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.821420965037515e-12</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.410710482518758e-12</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -4330,52 +4330,52 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.382637343916634e-12</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.438501479024377e-12</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.821138822941011e-12</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.821138822941011e-12</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.821138822941011e-12</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.821138822941011e-12</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4.203776166857646e-12</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.58641351077428e-12</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.58641351077428e-12</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>5.58641351077428e-12</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5.58641351077428e-12</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>5.58641351077428e-12</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>5.58641351077428e-12</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.58641351077428e-12</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>5.58641351077428e-12</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.58641351077428e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.232131447556273e-12</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4.232131447556273e-12</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.232131447556273e-12</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>4.232131447556273e-12</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.232131447556273e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.821420965037515e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.410710482518758e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4415,46 +4415,46 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.382637343916634e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.765274687833268e-12</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.147912031749903e-12</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.530549375666537e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.203776166857646e-12</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.58641351077428e-12</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.175703028255522e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>4.175703028255522e-12</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>4.175703028255522e-12</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>4.175703028255522e-12</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>4.175703028255522e-12</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4.175703028255522e-12</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>4.232131447556273e-12</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.232131447556273e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4491,46 +4491,46 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.382637343916634e-12</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.765274687833268e-12</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>4.147912031749903e-12</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4.147912031749903e-12</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.147912031749903e-12</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.58641351077428e-12</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.969050854690914e-12</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.969050854690914e-12</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>6.969050854690914e-12</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5.558340372172156e-12</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>4.147629889653399e-12</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>2.821420965037515e-12</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>2.821420965037515e-12</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1.410710482518758e-12</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>905.817532995486</v>
+        <v>1037.230886842095</v>
       </c>
       <c r="C11" t="n">
-        <v>905.817532995486</v>
+        <v>1037.230886842095</v>
       </c>
       <c r="D11" t="n">
-        <v>905.817532995486</v>
+        <v>717.7656279381051</v>
       </c>
       <c r="E11" t="n">
-        <v>905.817532995486</v>
+        <v>372.5532251206247</v>
       </c>
       <c r="F11" t="n">
-        <v>560.6051301780055</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="G11" t="n">
-        <v>215.3927273605251</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="H11" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="I11" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="J11" t="n">
-        <v>95.19447492671563</v>
+        <v>95.19447492671588</v>
       </c>
       <c r="K11" t="n">
-        <v>229.8695478244283</v>
+        <v>229.8695478244288</v>
       </c>
       <c r="L11" t="n">
-        <v>420.9320297462646</v>
+        <v>420.9320297462644</v>
       </c>
       <c r="M11" t="n">
-        <v>654.1109890220064</v>
+        <v>654.1109890220062</v>
       </c>
       <c r="N11" t="n">
-        <v>894.0620030861676</v>
+        <v>894.0620030861671</v>
       </c>
       <c r="O11" t="n">
         <v>1111.973021646434</v>
       </c>
       <c r="P11" t="n">
-        <v>1275.529383879707</v>
+        <v>1275.529383879706</v>
       </c>
       <c r="Q11" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R11" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S11" t="n">
         <v>1251.029935812966</v>
       </c>
       <c r="T11" t="n">
-        <v>1251.029935812966</v>
+        <v>1037.230886842095</v>
       </c>
       <c r="U11" t="n">
-        <v>1251.029935812966</v>
+        <v>1037.230886842095</v>
       </c>
       <c r="V11" t="n">
-        <v>1251.029935812966</v>
+        <v>1037.230886842095</v>
       </c>
       <c r="W11" t="n">
-        <v>1251.029935812966</v>
+        <v>1037.230886842095</v>
       </c>
       <c r="X11" t="n">
-        <v>1251.029935812966</v>
+        <v>1037.230886842095</v>
       </c>
       <c r="Y11" t="n">
-        <v>905.817532995486</v>
+        <v>1037.230886842095</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>177.9950527430522</v>
+        <v>310.9876262238935</v>
       </c>
       <c r="C12" t="n">
-        <v>27.34082230314445</v>
+        <v>160.3333957839857</v>
       </c>
       <c r="D12" t="n">
-        <v>27.34082230314445</v>
+        <v>160.3333957839857</v>
       </c>
       <c r="E12" t="n">
-        <v>27.34082230314445</v>
+        <v>160.3333957839857</v>
       </c>
       <c r="F12" t="n">
-        <v>27.34082230314445</v>
+        <v>35.90158966711752</v>
       </c>
       <c r="G12" t="n">
-        <v>27.34082230314445</v>
+        <v>35.90158966711752</v>
       </c>
       <c r="H12" t="n">
-        <v>27.34082230314445</v>
+        <v>35.90158966711752</v>
       </c>
       <c r="I12" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="J12" t="n">
-        <v>250.2573874193692</v>
+        <v>55.52239243964176</v>
       </c>
       <c r="K12" t="n">
-        <v>349.2248155482937</v>
+        <v>154.4898205685662</v>
       </c>
       <c r="L12" t="n">
-        <v>512.4083877576933</v>
+        <v>317.6733927779657</v>
       </c>
       <c r="M12" t="n">
-        <v>715.4178839661824</v>
+        <v>520.6828889864548</v>
       </c>
       <c r="N12" t="n">
-        <v>939.5808025904124</v>
+        <v>738.4310616812094</v>
       </c>
       <c r="O12" t="n">
-        <v>1124.334973168426</v>
+        <v>923.185232259223</v>
       </c>
       <c r="P12" t="n">
-        <v>1260.049990214551</v>
+        <v>1058.900249305348</v>
       </c>
       <c r="Q12" t="n">
         <v>1318.324407352076</v>
       </c>
       <c r="R12" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S12" t="n">
-        <v>1303.142066725556</v>
+        <v>1254.135937528827</v>
       </c>
       <c r="T12" t="n">
-        <v>1130.937814313963</v>
+        <v>1081.931685117234</v>
       </c>
       <c r="U12" t="n">
-        <v>920.9526833874277</v>
+        <v>871.9465541906989</v>
       </c>
       <c r="V12" t="n">
-        <v>698.4126817584947</v>
+        <v>649.4065525617659</v>
       </c>
       <c r="W12" t="n">
-        <v>698.4126817584947</v>
+        <v>419.2893066950528</v>
       </c>
       <c r="X12" t="n">
-        <v>509.1056041085064</v>
+        <v>419.2893066950528</v>
       </c>
       <c r="Y12" t="n">
-        <v>329.7913871840136</v>
+        <v>419.2893066950528</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>539.1495195790848</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="C13" t="n">
-        <v>368.944401645074</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="D13" t="n">
-        <v>341.2406256354681</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="E13" t="n">
-        <v>341.2406256354681</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="F13" t="n">
-        <v>341.2406256354681</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="G13" t="n">
-        <v>173.9806968973594</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="H13" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="I13" t="n">
-        <v>27.34082230314445</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="J13" t="n">
-        <v>27.34082230314445</v>
+        <v>66.45306417582708</v>
       </c>
       <c r="K13" t="n">
-        <v>222.3766968357603</v>
+        <v>261.4889387084429</v>
       </c>
       <c r="L13" t="n">
-        <v>280.4365007469376</v>
+        <v>570.4746716803968</v>
       </c>
       <c r="M13" t="n">
-        <v>618.7791767483502</v>
+        <v>908.8173476818092</v>
       </c>
       <c r="N13" t="n">
-        <v>951.0697207172645</v>
+        <v>1080.700664119241</v>
       </c>
       <c r="O13" t="n">
-        <v>1251.493310768029</v>
+        <v>1129.322704634536</v>
       </c>
       <c r="P13" t="n">
-        <v>1282.031056763991</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="Q13" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R13" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S13" t="n">
-        <v>1181.54992167076</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="T13" t="n">
-        <v>1181.54992167076</v>
+        <v>1135.569689019543</v>
       </c>
       <c r="U13" t="n">
-        <v>1181.54992167076</v>
+        <v>850.1851222703045</v>
       </c>
       <c r="V13" t="n">
-        <v>1181.54992167076</v>
+        <v>584.2057770911288</v>
       </c>
       <c r="W13" t="n">
-        <v>1181.54992167076</v>
+        <v>300.8753750223064</v>
       </c>
       <c r="X13" t="n">
-        <v>947.4695994537427</v>
+        <v>66.79505280528949</v>
       </c>
       <c r="Y13" t="n">
-        <v>724.357538270386</v>
+        <v>27.34082230314444</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>372.5532251206249</v>
+        <v>436.4430529806472</v>
       </c>
       <c r="C14" t="n">
-        <v>372.5532251206249</v>
+        <v>372.5532251206248</v>
       </c>
       <c r="D14" t="n">
-        <v>372.5532251206249</v>
+        <v>372.5532251206248</v>
       </c>
       <c r="E14" t="n">
-        <v>27.34082230314445</v>
+        <v>372.5532251206248</v>
       </c>
       <c r="F14" t="n">
         <v>27.34082230314445</v>
@@ -5278,52 +5278,52 @@
         <v>27.34082230314445</v>
       </c>
       <c r="J14" t="n">
-        <v>95.19447492671588</v>
+        <v>95.19447492671557</v>
       </c>
       <c r="K14" t="n">
-        <v>229.8695478244285</v>
+        <v>229.8695478244282</v>
       </c>
       <c r="L14" t="n">
-        <v>420.9320297462644</v>
+        <v>420.9320297462642</v>
       </c>
       <c r="M14" t="n">
-        <v>654.1109890220062</v>
+        <v>654.1109890220059</v>
       </c>
       <c r="N14" t="n">
-        <v>894.0620030861675</v>
+        <v>894.062003086167</v>
       </c>
       <c r="O14" t="n">
         <v>1111.973021646434</v>
       </c>
       <c r="P14" t="n">
-        <v>1275.529383879707</v>
+        <v>1275.529383879706</v>
       </c>
       <c r="Q14" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R14" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S14" t="n">
-        <v>1367.041115157223</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="T14" t="n">
-        <v>1367.041115157223</v>
+        <v>1037.230886842095</v>
       </c>
       <c r="U14" t="n">
-        <v>1367.041115157223</v>
+        <v>781.6554557981276</v>
       </c>
       <c r="V14" t="n">
-        <v>1367.041115157223</v>
+        <v>781.6554557981276</v>
       </c>
       <c r="W14" t="n">
-        <v>1367.041115157223</v>
+        <v>781.6554557981276</v>
       </c>
       <c r="X14" t="n">
-        <v>1062.978030755586</v>
+        <v>781.6554557981276</v>
       </c>
       <c r="Y14" t="n">
-        <v>717.7656279381054</v>
+        <v>781.6554557981276</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>773.2423108577096</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="C15" t="n">
-        <v>622.5880804178018</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="D15" t="n">
-        <v>492.4991130392822</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="E15" t="n">
-        <v>356.05262215017</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="F15" t="n">
-        <v>231.6208160333018</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="G15" t="n">
-        <v>112.7467865064781</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="H15" t="n">
         <v>35.90158966711751</v>
@@ -5363,46 +5363,46 @@
         <v>349.2248155482937</v>
       </c>
       <c r="L15" t="n">
-        <v>512.4083877576932</v>
+        <v>567.539841492315</v>
       </c>
       <c r="M15" t="n">
-        <v>715.4178839661823</v>
+        <v>770.5493377008041</v>
       </c>
       <c r="N15" t="n">
-        <v>933.1660566609369</v>
+        <v>988.2975103955587</v>
       </c>
       <c r="O15" t="n">
-        <v>1117.92022723895</v>
+        <v>1173.051680973572</v>
       </c>
       <c r="P15" t="n">
-        <v>1253.635244285075</v>
+        <v>1308.766698019697</v>
       </c>
       <c r="Q15" t="n">
-        <v>1318.324407352076</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R15" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S15" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="T15" t="n">
-        <v>1293.659939873152</v>
+        <v>1218.961597104741</v>
       </c>
       <c r="U15" t="n">
-        <v>1293.659939873152</v>
+        <v>1008.976466178206</v>
       </c>
       <c r="V15" t="n">
-        <v>1293.659939873152</v>
+        <v>786.4364645492731</v>
       </c>
       <c r="W15" t="n">
-        <v>1293.659939873152</v>
+        <v>556.3192186825599</v>
       </c>
       <c r="X15" t="n">
-        <v>1104.352862223164</v>
+        <v>367.0121410325716</v>
       </c>
       <c r="Y15" t="n">
-        <v>925.038645298671</v>
+        <v>187.6979241080788</v>
       </c>
     </row>
     <row r="16">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>196.1555080237185</v>
+        <v>194.6007510412531</v>
       </c>
       <c r="C16" t="n">
         <v>194.6007510412531</v>
@@ -5436,52 +5436,52 @@
         <v>27.34082230314445</v>
       </c>
       <c r="J16" t="n">
-        <v>27.34082230314445</v>
+        <v>66.45306417582711</v>
       </c>
       <c r="K16" t="n">
-        <v>57.78429802369669</v>
+        <v>261.4889387084429</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7700309956506</v>
+        <v>570.4746716803968</v>
       </c>
       <c r="M16" t="n">
-        <v>705.1127069970632</v>
+        <v>908.8173476818093</v>
       </c>
       <c r="N16" t="n">
-        <v>1037.403250965978</v>
+        <v>1241.107891650724</v>
       </c>
       <c r="O16" t="n">
-        <v>1337.826841016742</v>
+        <v>1337.826841016741</v>
       </c>
       <c r="P16" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="Q16" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R16" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S16" t="n">
-        <v>1181.54992167076</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="T16" t="n">
-        <v>950.0784955330805</v>
+        <v>1263.375387255506</v>
       </c>
       <c r="U16" t="n">
-        <v>664.6939287838421</v>
+        <v>977.9908205062681</v>
       </c>
       <c r="V16" t="n">
-        <v>664.6939287838421</v>
+        <v>712.0114753270923</v>
       </c>
       <c r="W16" t="n">
-        <v>381.3635267150198</v>
+        <v>428.68107325827</v>
       </c>
       <c r="X16" t="n">
-        <v>381.3635267150198</v>
+        <v>194.6007510412531</v>
       </c>
       <c r="Y16" t="n">
-        <v>381.3635267150198</v>
+        <v>194.6007510412531</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>372.553225120625</v>
+        <v>1062.978030755586</v>
       </c>
       <c r="C17" t="n">
-        <v>372.553225120625</v>
+        <v>717.7656279381054</v>
       </c>
       <c r="D17" t="n">
-        <v>372.553225120625</v>
+        <v>717.7656279381054</v>
       </c>
       <c r="E17" t="n">
-        <v>372.553225120625</v>
+        <v>372.5532251206249</v>
       </c>
       <c r="F17" t="n">
-        <v>372.553225120625</v>
+        <v>27.34082230314445</v>
       </c>
       <c r="G17" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314445</v>
       </c>
       <c r="H17" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314445</v>
       </c>
       <c r="I17" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314445</v>
       </c>
       <c r="J17" t="n">
-        <v>95.19447492671566</v>
+        <v>95.19447492671556</v>
       </c>
       <c r="K17" t="n">
-        <v>229.8695478244283</v>
+        <v>229.8695478244282</v>
       </c>
       <c r="L17" t="n">
-        <v>420.9320297462642</v>
+        <v>420.9320297462641</v>
       </c>
       <c r="M17" t="n">
-        <v>654.1109890220059</v>
+        <v>654.1109890220058</v>
       </c>
       <c r="N17" t="n">
         <v>894.0620030861669</v>
       </c>
       <c r="O17" t="n">
-        <v>1111.973021646434</v>
+        <v>1111.973021646433</v>
       </c>
       <c r="P17" t="n">
-        <v>1275.529383879707</v>
+        <v>1275.529383879706</v>
       </c>
       <c r="Q17" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R17" t="n">
         <v>1367.041115157223</v>
@@ -5551,16 +5551,16 @@
         <v>1367.041115157223</v>
       </c>
       <c r="V17" t="n">
-        <v>1024.934305860741</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="W17" t="n">
-        <v>679.7219030432605</v>
+        <v>1062.978030755586</v>
       </c>
       <c r="X17" t="n">
-        <v>372.553225120625</v>
+        <v>1062.978030755586</v>
       </c>
       <c r="Y17" t="n">
-        <v>372.553225120625</v>
+        <v>1062.978030755586</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>27.34082230314446</v>
+        <v>172.3480805562298</v>
       </c>
       <c r="C18" t="n">
-        <v>27.34082230314446</v>
+        <v>172.3480805562298</v>
       </c>
       <c r="D18" t="n">
-        <v>27.34082230314446</v>
+        <v>172.3480805562298</v>
       </c>
       <c r="E18" t="n">
-        <v>27.34082230314446</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="F18" t="n">
-        <v>27.34082230314446</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="G18" t="n">
-        <v>27.34082230314446</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="H18" t="n">
-        <v>27.34082230314446</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="I18" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314445</v>
       </c>
       <c r="J18" t="n">
-        <v>250.2573874193692</v>
+        <v>55.5223924396418</v>
       </c>
       <c r="K18" t="n">
-        <v>349.2248155482937</v>
+        <v>154.4898205685663</v>
       </c>
       <c r="L18" t="n">
-        <v>512.4083877576932</v>
+        <v>317.6733927779658</v>
       </c>
       <c r="M18" t="n">
-        <v>715.4178839661823</v>
+        <v>520.6828889864549</v>
       </c>
       <c r="N18" t="n">
-        <v>933.1660566609369</v>
+        <v>738.4310616812095</v>
       </c>
       <c r="O18" t="n">
-        <v>1117.92022723895</v>
+        <v>923.1852322592231</v>
       </c>
       <c r="P18" t="n">
-        <v>1253.635244285075</v>
+        <v>1058.900249305348</v>
       </c>
       <c r="Q18" t="n">
-        <v>1318.324407352077</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="R18" t="n">
         <v>1367.041115157223</v>
       </c>
       <c r="S18" t="n">
-        <v>1367.041115157223</v>
+        <v>1355.408087993853</v>
       </c>
       <c r="T18" t="n">
-        <v>1210.400829740768</v>
+        <v>1355.408087993853</v>
       </c>
       <c r="U18" t="n">
-        <v>1000.415698814233</v>
+        <v>1145.422957067318</v>
       </c>
       <c r="V18" t="n">
-        <v>777.8756971852999</v>
+        <v>922.8829554383854</v>
       </c>
       <c r="W18" t="n">
-        <v>547.7584513185868</v>
+        <v>692.7657095716722</v>
       </c>
       <c r="X18" t="n">
-        <v>358.4513736685985</v>
+        <v>503.4586319216839</v>
       </c>
       <c r="Y18" t="n">
-        <v>179.1371567441058</v>
+        <v>324.1444149971911</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.7584856607778</v>
+        <v>460.9870891705481</v>
       </c>
       <c r="C19" t="n">
-        <v>809.7584856607778</v>
+        <v>460.9870891705481</v>
       </c>
       <c r="D19" t="n">
-        <v>654.1253725632926</v>
+        <v>460.9870891705481</v>
       </c>
       <c r="E19" t="n">
-        <v>498.5665604224951</v>
+        <v>460.9870891705481</v>
       </c>
       <c r="F19" t="n">
-        <v>341.2406256354681</v>
+        <v>444.438996113201</v>
       </c>
       <c r="G19" t="n">
-        <v>173.9806968973594</v>
+        <v>277.1790673750924</v>
       </c>
       <c r="H19" t="n">
-        <v>27.34082230314446</v>
+        <v>130.5391927808774</v>
       </c>
       <c r="I19" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314445</v>
       </c>
       <c r="J19" t="n">
-        <v>66.45306417582711</v>
+        <v>27.34082230314445</v>
       </c>
       <c r="K19" t="n">
-        <v>261.4889387084429</v>
+        <v>57.52162409307887</v>
       </c>
       <c r="L19" t="n">
-        <v>570.4746716803968</v>
+        <v>366.5073570650328</v>
       </c>
       <c r="M19" t="n">
-        <v>633.8084782787489</v>
+        <v>704.8500330664453</v>
       </c>
       <c r="N19" t="n">
-        <v>743.8890561905409</v>
+        <v>1037.14057703536</v>
       </c>
       <c r="O19" t="n">
-        <v>1044.312646241305</v>
+        <v>1337.564167086124</v>
       </c>
       <c r="P19" t="n">
-        <v>1282.031056763991</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="Q19" t="n">
         <v>1367.041115157223</v>
       </c>
       <c r="R19" t="n">
-        <v>1287.839608093955</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="S19" t="n">
-        <v>1102.348414607492</v>
+        <v>1181.54992167076</v>
       </c>
       <c r="T19" t="n">
-        <v>1032.870546844134</v>
+        <v>950.0784955330805</v>
       </c>
       <c r="U19" t="n">
-        <v>1032.870546844134</v>
+        <v>950.0784955330805</v>
       </c>
       <c r="V19" t="n">
-        <v>1032.870546844134</v>
+        <v>684.0991503539047</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.870546844134</v>
+        <v>684.0991503539047</v>
       </c>
       <c r="X19" t="n">
-        <v>1032.870546844134</v>
+        <v>684.0991503539047</v>
       </c>
       <c r="Y19" t="n">
-        <v>809.7584856607778</v>
+        <v>460.9870891705481</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>372.5532251206247</v>
+        <v>563.7107236990043</v>
       </c>
       <c r="C20" t="n">
-        <v>27.34082230314444</v>
+        <v>563.7107236990043</v>
       </c>
       <c r="D20" t="n">
-        <v>27.34082230314444</v>
+        <v>563.7107236990043</v>
       </c>
       <c r="E20" t="n">
-        <v>27.34082230314444</v>
+        <v>563.7107236990043</v>
       </c>
       <c r="F20" t="n">
-        <v>27.34082230314444</v>
+        <v>218.4983208815239</v>
       </c>
       <c r="G20" t="n">
-        <v>27.34082230314444</v>
+        <v>27.34082230314445</v>
       </c>
       <c r="H20" t="n">
-        <v>27.34082230314444</v>
+        <v>27.34082230314445</v>
       </c>
       <c r="I20" t="n">
-        <v>27.34082230314444</v>
+        <v>27.34082230314445</v>
       </c>
       <c r="J20" t="n">
-        <v>95.19447492671554</v>
+        <v>95.19447492671588</v>
       </c>
       <c r="K20" t="n">
-        <v>229.8695478244282</v>
+        <v>229.8695478244286</v>
       </c>
       <c r="L20" t="n">
-        <v>420.9320297462641</v>
+        <v>420.9320297462645</v>
       </c>
       <c r="M20" t="n">
-        <v>654.1109890220058</v>
+        <v>654.1109890220064</v>
       </c>
       <c r="N20" t="n">
-        <v>894.0620030861669</v>
+        <v>894.0620030861675</v>
       </c>
       <c r="O20" t="n">
-        <v>1111.973021646433</v>
+        <v>1111.973021646434</v>
       </c>
       <c r="P20" t="n">
         <v>1275.529383879706</v>
       </c>
       <c r="Q20" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="R20" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="S20" t="n">
         <v>1251.029935812966</v>
       </c>
       <c r="T20" t="n">
-        <v>1062.978030755585</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="U20" t="n">
-        <v>1062.978030755585</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="V20" t="n">
-        <v>1062.978030755585</v>
+        <v>908.9231265164848</v>
       </c>
       <c r="W20" t="n">
-        <v>1062.978030755585</v>
+        <v>563.7107236990043</v>
       </c>
       <c r="X20" t="n">
-        <v>1062.978030755585</v>
+        <v>563.7107236990043</v>
       </c>
       <c r="Y20" t="n">
-        <v>717.7656279381051</v>
+        <v>563.7107236990043</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>177.9950527430522</v>
+        <v>453.0912783746572</v>
       </c>
       <c r="C21" t="n">
-        <v>27.34082230314444</v>
+        <v>302.4370479347494</v>
       </c>
       <c r="D21" t="n">
-        <v>27.34082230314444</v>
+        <v>172.3480805562298</v>
       </c>
       <c r="E21" t="n">
-        <v>27.34082230314444</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="F21" t="n">
-        <v>27.34082230314444</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="G21" t="n">
-        <v>27.34082230314444</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="H21" t="n">
-        <v>27.34082230314444</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="I21" t="n">
-        <v>27.34082230314444</v>
+        <v>27.34082230314445</v>
       </c>
       <c r="J21" t="n">
-        <v>130.2297373619778</v>
+        <v>250.2573874193692</v>
       </c>
       <c r="K21" t="n">
-        <v>229.1971654909023</v>
+        <v>349.2248155482937</v>
       </c>
       <c r="L21" t="n">
-        <v>567.5398414923147</v>
+        <v>512.4083877576932</v>
       </c>
       <c r="M21" t="n">
-        <v>770.5493377008039</v>
+        <v>715.4178839661823</v>
       </c>
       <c r="N21" t="n">
-        <v>988.2975103955584</v>
+        <v>933.1660566609369</v>
       </c>
       <c r="O21" t="n">
-        <v>1173.051680973572</v>
+        <v>1117.92022723895</v>
       </c>
       <c r="P21" t="n">
-        <v>1308.766698019697</v>
+        <v>1253.635244285075</v>
       </c>
       <c r="Q21" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="R21" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="S21" t="n">
-        <v>1254.135937528827</v>
+        <v>1257.266995206389</v>
       </c>
       <c r="T21" t="n">
-        <v>1081.931685117234</v>
+        <v>1085.062742794796</v>
       </c>
       <c r="U21" t="n">
-        <v>871.9465541906989</v>
+        <v>1085.062742794796</v>
       </c>
       <c r="V21" t="n">
-        <v>649.4065525617659</v>
+        <v>862.5227411658632</v>
       </c>
       <c r="W21" t="n">
-        <v>419.2893066950528</v>
+        <v>632.4054952991501</v>
       </c>
       <c r="X21" t="n">
-        <v>419.2893066950528</v>
+        <v>632.4054952991501</v>
       </c>
       <c r="Y21" t="n">
-        <v>329.7913871840136</v>
+        <v>453.0912783746572</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>511.4457435694789</v>
+        <v>27.34082230314445</v>
       </c>
       <c r="C22" t="n">
-        <v>341.2406256354681</v>
+        <v>27.34082230314445</v>
       </c>
       <c r="D22" t="n">
-        <v>341.2406256354681</v>
+        <v>27.34082230314445</v>
       </c>
       <c r="E22" t="n">
-        <v>341.2406256354681</v>
+        <v>27.34082230314445</v>
       </c>
       <c r="F22" t="n">
-        <v>341.2406256354681</v>
+        <v>27.34082230314445</v>
       </c>
       <c r="G22" t="n">
-        <v>173.9806968973594</v>
+        <v>27.34082230314445</v>
       </c>
       <c r="H22" t="n">
-        <v>27.34082230314444</v>
+        <v>27.34082230314445</v>
       </c>
       <c r="I22" t="n">
-        <v>27.34082230314444</v>
+        <v>27.34082230314445</v>
       </c>
       <c r="J22" t="n">
-        <v>66.45306417582711</v>
+        <v>27.34082230314445</v>
       </c>
       <c r="K22" t="n">
-        <v>261.4889387084429</v>
+        <v>57.52162409307887</v>
       </c>
       <c r="L22" t="n">
-        <v>570.4746716803968</v>
+        <v>366.5073570650328</v>
       </c>
       <c r="M22" t="n">
-        <v>908.8173476818092</v>
+        <v>704.8500330664453</v>
       </c>
       <c r="N22" t="n">
-        <v>1241.107891650724</v>
+        <v>1037.14057703536</v>
       </c>
       <c r="O22" t="n">
-        <v>1337.826841016741</v>
+        <v>1337.564167086124</v>
       </c>
       <c r="P22" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="Q22" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="R22" t="n">
-        <v>1367.041115157222</v>
+        <v>1367.041115157223</v>
       </c>
       <c r="S22" t="n">
-        <v>1181.549921670759</v>
+        <v>1218.496240243895</v>
       </c>
       <c r="T22" t="n">
-        <v>1181.549921670759</v>
+        <v>987.0248141062165</v>
       </c>
       <c r="U22" t="n">
-        <v>896.1653549215208</v>
+        <v>701.6402473569781</v>
       </c>
       <c r="V22" t="n">
-        <v>896.1653549215208</v>
+        <v>435.6609021778024</v>
       </c>
       <c r="W22" t="n">
-        <v>896.1653549215208</v>
+        <v>435.6609021778024</v>
       </c>
       <c r="X22" t="n">
-        <v>896.1653549215208</v>
+        <v>435.6609021778024</v>
       </c>
       <c r="Y22" t="n">
-        <v>696.6537622607801</v>
+        <v>212.5488409944457</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1328.505459599753</v>
+        <v>676.2809769171806</v>
       </c>
       <c r="C23" t="n">
-        <v>1328.505459599753</v>
+        <v>676.2809769171806</v>
       </c>
       <c r="D23" t="n">
-        <v>1328.505459599753</v>
+        <v>676.2809769171806</v>
       </c>
       <c r="E23" t="n">
-        <v>925.9219347162973</v>
+        <v>676.2809769171806</v>
       </c>
       <c r="F23" t="n">
         <v>509.0274962462751</v>
@@ -5989,13 +5989,13 @@
         <v>45.1851209394322</v>
       </c>
       <c r="J23" t="n">
-        <v>192.1986326325232</v>
+        <v>374.191586034754</v>
       </c>
       <c r="K23" t="n">
-        <v>326.8737055302358</v>
+        <v>508.8666589324667</v>
       </c>
       <c r="L23" t="n">
-        <v>886.0395771557093</v>
+        <v>699.9291408543027</v>
       </c>
       <c r="M23" t="n">
         <v>1119.218536431451</v>
@@ -6016,25 +6016,25 @@
         <v>2259.25604697161</v>
       </c>
       <c r="S23" t="n">
-        <v>2143.244867627354</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="T23" t="n">
-        <v>1929.445818656483</v>
+        <v>2045.456998000739</v>
       </c>
       <c r="U23" t="n">
-        <v>1673.870387612516</v>
+        <v>1789.881566956772</v>
       </c>
       <c r="V23" t="n">
-        <v>1331.763578316034</v>
+        <v>1447.77475766029</v>
       </c>
       <c r="W23" t="n">
-        <v>1328.505459599753</v>
+        <v>1076.775722628578</v>
       </c>
       <c r="X23" t="n">
-        <v>1328.505459599753</v>
+        <v>1076.775722628578</v>
       </c>
       <c r="Y23" t="n">
-        <v>1328.505459599753</v>
+        <v>1076.775722628578</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>791.086609493998</v>
+        <v>791.0866094939979</v>
       </c>
       <c r="C24" t="n">
-        <v>640.4323790540902</v>
+        <v>640.43237905409</v>
       </c>
       <c r="D24" t="n">
-        <v>510.3434116755706</v>
+        <v>510.3434116755705</v>
       </c>
       <c r="E24" t="n">
-        <v>373.8969207864583</v>
+        <v>373.8969207864582</v>
       </c>
       <c r="F24" t="n">
-        <v>249.4651146695901</v>
+        <v>249.4651146695899</v>
       </c>
       <c r="G24" t="n">
-        <v>130.5910851427659</v>
+        <v>130.5910851427661</v>
       </c>
       <c r="H24" t="n">
         <v>53.74588830340527</v>
@@ -6071,25 +6071,25 @@
         <v>268.101686055657</v>
       </c>
       <c r="K24" t="n">
-        <v>576.1455385019839</v>
+        <v>775.5092262268079</v>
       </c>
       <c r="L24" t="n">
-        <v>1135.311410127457</v>
+        <v>938.6927984362073</v>
       </c>
       <c r="M24" t="n">
-        <v>1338.320906335946</v>
+        <v>1141.702294644696</v>
       </c>
       <c r="N24" t="n">
-        <v>1556.069079030701</v>
+        <v>1359.450467339451</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.823249608715</v>
+        <v>1544.204637917465</v>
       </c>
       <c r="P24" t="n">
-        <v>1876.538266654839</v>
+        <v>1827.821558849693</v>
       </c>
       <c r="Q24" t="n">
-        <v>2259.25604697161</v>
+        <v>2210.539339166464</v>
       </c>
       <c r="R24" t="n">
         <v>2259.25604697161</v>
@@ -6113,7 +6113,7 @@
         <v>1122.197160859452</v>
       </c>
       <c r="Y24" t="n">
-        <v>942.8829439349594</v>
+        <v>942.8829439349593</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>452.3493007984072</v>
+        <v>440.1989031117661</v>
       </c>
       <c r="C25" t="n">
-        <v>452.3493007984072</v>
+        <v>269.9937851777553</v>
       </c>
       <c r="D25" t="n">
-        <v>452.3493007984072</v>
+        <v>269.9937851777553</v>
       </c>
       <c r="E25" t="n">
-        <v>452.3493007984072</v>
+        <v>114.4349730369578</v>
       </c>
       <c r="F25" t="n">
-        <v>295.0233660113802</v>
+        <v>114.4349730369578</v>
       </c>
       <c r="G25" t="n">
-        <v>295.0233660113802</v>
+        <v>45.1851209394322</v>
       </c>
       <c r="H25" t="n">
-        <v>148.3834914171652</v>
+        <v>45.1851209394322</v>
       </c>
       <c r="I25" t="n">
         <v>45.1851209394322</v>
@@ -6171,28 +6171,28 @@
         <v>1882.785700159181</v>
       </c>
       <c r="R25" t="n">
-        <v>1803.584193095913</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="S25" t="n">
-        <v>1618.09299960945</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="T25" t="n">
-        <v>1386.621573471771</v>
+        <v>1651.314274021502</v>
       </c>
       <c r="U25" t="n">
-        <v>1101.237006722532</v>
+        <v>1365.929707272263</v>
       </c>
       <c r="V25" t="n">
-        <v>835.2576615433567</v>
+        <v>1365.929707272263</v>
       </c>
       <c r="W25" t="n">
-        <v>551.9272594745344</v>
+        <v>1082.599305203441</v>
       </c>
       <c r="X25" t="n">
-        <v>452.3493007984072</v>
+        <v>848.518982986424</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.3493007984072</v>
+        <v>625.4069218030673</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>438.3606224365016</v>
+        <v>757.5177143340752</v>
       </c>
       <c r="C26" t="n">
-        <v>45.18512093943218</v>
+        <v>757.5177143340752</v>
       </c>
       <c r="D26" t="n">
-        <v>45.18512093943218</v>
+        <v>757.5177143340752</v>
       </c>
       <c r="E26" t="n">
-        <v>45.18512093943218</v>
+        <v>757.5177143340752</v>
       </c>
       <c r="F26" t="n">
-        <v>45.18512093943218</v>
+        <v>757.5177143340752</v>
       </c>
       <c r="G26" t="n">
-        <v>45.18512093943218</v>
+        <v>346.5711903400023</v>
       </c>
       <c r="H26" t="n">
-        <v>45.18512093943218</v>
+        <v>45.1851209394322</v>
       </c>
       <c r="I26" t="n">
-        <v>45.18512093943218</v>
+        <v>45.1851209394322</v>
       </c>
       <c r="J26" t="n">
         <v>374.191586034754</v>
       </c>
       <c r="K26" t="n">
-        <v>794.1852080636588</v>
+        <v>508.8666589324667</v>
       </c>
       <c r="L26" t="n">
-        <v>985.2476899854947</v>
+        <v>699.9291408543027</v>
       </c>
       <c r="M26" t="n">
-        <v>1218.426649261236</v>
+        <v>933.1081001300444</v>
       </c>
       <c r="N26" t="n">
-        <v>1458.377663325397</v>
+        <v>1173.059114194205</v>
       </c>
       <c r="O26" t="n">
-        <v>1676.288681885664</v>
+        <v>1390.970132754472</v>
       </c>
       <c r="P26" t="n">
-        <v>1839.845044118936</v>
+        <v>1740.636931289151</v>
       </c>
       <c r="Q26" t="n">
-        <v>2259.256046971609</v>
+        <v>2160.047934141824</v>
       </c>
       <c r="R26" t="n">
-        <v>2259.256046971609</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="S26" t="n">
-        <v>2143.244867627353</v>
+        <v>2143.244867627354</v>
       </c>
       <c r="T26" t="n">
-        <v>1929.445818656482</v>
+        <v>1929.445818656483</v>
       </c>
       <c r="U26" t="n">
-        <v>1673.870387612515</v>
+        <v>1673.870387612516</v>
       </c>
       <c r="V26" t="n">
-        <v>1331.763578316033</v>
+        <v>1517.969354432731</v>
       </c>
       <c r="W26" t="n">
-        <v>960.7645432843206</v>
+        <v>1146.970319401019</v>
       </c>
       <c r="X26" t="n">
-        <v>571.3119382173774</v>
+        <v>757.5177143340752</v>
       </c>
       <c r="Y26" t="n">
-        <v>438.3606224365016</v>
+        <v>757.5177143340752</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>791.0866094939977</v>
+        <v>791.0866094939984</v>
       </c>
       <c r="C27" t="n">
-        <v>640.4323790540899</v>
+        <v>640.4323790540905</v>
       </c>
       <c r="D27" t="n">
-        <v>510.3434116755702</v>
+        <v>510.3434116755707</v>
       </c>
       <c r="E27" t="n">
-        <v>373.8969207864579</v>
+        <v>373.8969207864584</v>
       </c>
       <c r="F27" t="n">
-        <v>249.4651146695898</v>
+        <v>249.4651146695901</v>
       </c>
       <c r="G27" t="n">
-        <v>130.5910851427658</v>
+        <v>130.5910851427664</v>
       </c>
       <c r="H27" t="n">
-        <v>53.74588830340524</v>
+        <v>53.74588830340554</v>
       </c>
       <c r="I27" t="n">
-        <v>45.18512093943218</v>
+        <v>45.1851209394322</v>
       </c>
       <c r="J27" t="n">
         <v>268.101686055657</v>
       </c>
       <c r="K27" t="n">
-        <v>581.9934311821921</v>
+        <v>775.5092262268079</v>
       </c>
       <c r="L27" t="n">
-        <v>745.1770033915916</v>
+        <v>938.6927984362073</v>
       </c>
       <c r="M27" t="n">
-        <v>948.1864996000808</v>
+        <v>1141.702294644696</v>
       </c>
       <c r="N27" t="n">
-        <v>1507.352371225554</v>
+        <v>1359.450467339451</v>
       </c>
       <c r="O27" t="n">
         <v>1692.106541803568</v>
       </c>
       <c r="P27" t="n">
-        <v>1827.821558849692</v>
+        <v>1827.821558849693</v>
       </c>
       <c r="Q27" t="n">
-        <v>2210.539339166463</v>
+        <v>2210.539339166464</v>
       </c>
       <c r="R27" t="n">
-        <v>2259.256046971609</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="S27" t="n">
-        <v>2146.350869343214</v>
+        <v>2146.350869343215</v>
       </c>
       <c r="T27" t="n">
-        <v>1974.146616931621</v>
+        <v>1974.146616931622</v>
       </c>
       <c r="U27" t="n">
-        <v>1764.161486005086</v>
+        <v>1764.161486005087</v>
       </c>
       <c r="V27" t="n">
-        <v>1541.621484376153</v>
+        <v>1541.621484376154</v>
       </c>
       <c r="W27" t="n">
-        <v>1311.50423850944</v>
+        <v>1311.504238509441</v>
       </c>
       <c r="X27" t="n">
         <v>1122.197160859452</v>
       </c>
       <c r="Y27" t="n">
-        <v>942.882943934959</v>
+        <v>942.8829439349597</v>
       </c>
     </row>
     <row r="28">
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>488.7880318423199</v>
+        <v>538.2089797523491</v>
       </c>
       <c r="C28" t="n">
-        <v>318.5829139083091</v>
+        <v>368.0038618183384</v>
       </c>
       <c r="D28" t="n">
-        <v>318.5829139083091</v>
+        <v>368.0038618183384</v>
       </c>
       <c r="E28" t="n">
-        <v>318.5829139083091</v>
+        <v>212.4450496775409</v>
       </c>
       <c r="F28" t="n">
-        <v>318.5829139083091</v>
+        <v>212.4450496775409</v>
       </c>
       <c r="G28" t="n">
-        <v>151.3229851702005</v>
+        <v>45.1851209394322</v>
       </c>
       <c r="H28" t="n">
-        <v>45.18512093943218</v>
+        <v>45.1851209394322</v>
       </c>
       <c r="I28" t="n">
-        <v>45.18512093943218</v>
+        <v>45.1851209394322</v>
       </c>
       <c r="J28" t="n">
-        <v>84.29736281211484</v>
+        <v>84.29736281211487</v>
       </c>
       <c r="K28" t="n">
-        <v>279.3332373447306</v>
+        <v>279.3332373447307</v>
       </c>
       <c r="L28" t="n">
-        <v>588.3189703166845</v>
+        <v>588.3189703166846</v>
       </c>
       <c r="M28" t="n">
-        <v>927.3430972235844</v>
+        <v>927.3430972235846</v>
       </c>
       <c r="N28" t="n">
         <v>1259.633641192499</v>
@@ -6420,16 +6420,16 @@
         <v>1180.4385137858</v>
       </c>
       <c r="V28" t="n">
-        <v>1180.4385137858</v>
+        <v>957.4973206606674</v>
       </c>
       <c r="W28" t="n">
-        <v>897.1081117169779</v>
+        <v>957.4973206606674</v>
       </c>
       <c r="X28" t="n">
-        <v>897.1081117169779</v>
+        <v>723.4169984436504</v>
       </c>
       <c r="Y28" t="n">
-        <v>673.9960505336212</v>
+        <v>723.4169984436504</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>571.3119382173778</v>
+        <v>873.0260834035273</v>
       </c>
       <c r="C29" t="n">
-        <v>571.3119382173778</v>
+        <v>873.0260834035273</v>
       </c>
       <c r="D29" t="n">
-        <v>571.3119382173778</v>
+        <v>873.0260834035273</v>
       </c>
       <c r="E29" t="n">
-        <v>571.3119382173778</v>
+        <v>873.0260834035273</v>
       </c>
       <c r="F29" t="n">
-        <v>154.4174997473556</v>
+        <v>456.131644933505</v>
       </c>
       <c r="G29" t="n">
-        <v>45.18512093943219</v>
+        <v>45.1851209394322</v>
       </c>
       <c r="H29" t="n">
-        <v>45.18512093943219</v>
+        <v>45.1851209394322</v>
       </c>
       <c r="I29" t="n">
-        <v>45.18512093943219</v>
+        <v>45.1851209394322</v>
       </c>
       <c r="J29" t="n">
         <v>374.191586034754</v>
       </c>
       <c r="K29" t="n">
-        <v>694.9770952338729</v>
+        <v>933.3574576602275</v>
       </c>
       <c r="L29" t="n">
-        <v>886.0395771557088</v>
+        <v>1313.146961560652</v>
       </c>
       <c r="M29" t="n">
-        <v>1119.218536431451</v>
+        <v>1546.325920836394</v>
       </c>
       <c r="N29" t="n">
-        <v>1359.169550495611</v>
+        <v>1786.276934900555</v>
       </c>
       <c r="O29" t="n">
-        <v>1577.080569055878</v>
+        <v>2004.187953460822</v>
       </c>
       <c r="P29" t="n">
-        <v>1740.63693128915</v>
+        <v>2167.744315694094</v>
       </c>
       <c r="Q29" t="n">
-        <v>2160.047934141823</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="R29" t="n">
         <v>2259.25604697161</v>
       </c>
       <c r="S29" t="n">
-        <v>2143.244867627353</v>
+        <v>2225.917396461676</v>
       </c>
       <c r="T29" t="n">
-        <v>1929.445818656483</v>
+        <v>2012.118347490805</v>
       </c>
       <c r="U29" t="n">
-        <v>1673.870387612515</v>
+        <v>2012.118347490805</v>
       </c>
       <c r="V29" t="n">
-        <v>1331.763578316034</v>
+        <v>1670.011538194323</v>
       </c>
       <c r="W29" t="n">
-        <v>960.764543284321</v>
+        <v>1670.011538194323</v>
       </c>
       <c r="X29" t="n">
-        <v>571.3119382173778</v>
+        <v>1670.011538194323</v>
       </c>
       <c r="Y29" t="n">
-        <v>571.3119382173778</v>
+        <v>1273.520829114924</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>791.0866094939976</v>
+        <v>791.0866094939984</v>
       </c>
       <c r="C30" t="n">
-        <v>640.4323790540898</v>
+        <v>640.4323790540905</v>
       </c>
       <c r="D30" t="n">
-        <v>510.3434116755701</v>
+        <v>510.3434116755707</v>
       </c>
       <c r="E30" t="n">
-        <v>373.8969207864578</v>
+        <v>373.8969207864584</v>
       </c>
       <c r="F30" t="n">
-        <v>249.4651146695896</v>
+        <v>249.4651146695901</v>
       </c>
       <c r="G30" t="n">
-        <v>130.5910851427661</v>
+        <v>130.5910851427664</v>
       </c>
       <c r="H30" t="n">
-        <v>53.74588830340525</v>
+        <v>53.74588830340554</v>
       </c>
       <c r="I30" t="n">
-        <v>45.18512093943219</v>
+        <v>45.1851209394322</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36669107592954</v>
+        <v>268.101686055657</v>
       </c>
       <c r="K30" t="n">
-        <v>580.7742312470805</v>
+        <v>775.5092262268079</v>
       </c>
       <c r="L30" t="n">
-        <v>743.95780345648</v>
+        <v>1086.594702322311</v>
       </c>
       <c r="M30" t="n">
-        <v>946.9672996649691</v>
+        <v>1289.6041985308</v>
       </c>
       <c r="N30" t="n">
-        <v>1164.715472359724</v>
+        <v>1507.352371225555</v>
       </c>
       <c r="O30" t="n">
-        <v>1723.881343985197</v>
+        <v>1692.106541803568</v>
       </c>
       <c r="P30" t="n">
-        <v>2152.264922028938</v>
+        <v>1827.821558849693</v>
       </c>
       <c r="Q30" t="n">
-        <v>2210.539339166463</v>
+        <v>2210.539339166464</v>
       </c>
       <c r="R30" t="n">
         <v>2259.25604697161</v>
@@ -6572,22 +6572,22 @@
         <v>2146.350869343215</v>
       </c>
       <c r="T30" t="n">
-        <v>1974.146616931621</v>
+        <v>1974.146616931622</v>
       </c>
       <c r="U30" t="n">
-        <v>1764.161486005086</v>
+        <v>1764.161486005087</v>
       </c>
       <c r="V30" t="n">
-        <v>1541.621484376153</v>
+        <v>1541.621484376154</v>
       </c>
       <c r="W30" t="n">
-        <v>1311.50423850944</v>
+        <v>1311.504238509441</v>
       </c>
       <c r="X30" t="n">
         <v>1122.197160859452</v>
       </c>
       <c r="Y30" t="n">
-        <v>942.8829439349589</v>
+        <v>942.8829439349597</v>
       </c>
     </row>
     <row r="31">
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>215.390238873443</v>
+        <v>359.4275766238917</v>
       </c>
       <c r="C31" t="n">
-        <v>45.18512093943219</v>
+        <v>189.2224586898809</v>
       </c>
       <c r="D31" t="n">
-        <v>45.18512093943219</v>
+        <v>189.2224586898809</v>
       </c>
       <c r="E31" t="n">
-        <v>45.18512093943219</v>
+        <v>45.1851209394322</v>
       </c>
       <c r="F31" t="n">
-        <v>45.18512093943219</v>
+        <v>45.1851209394322</v>
       </c>
       <c r="G31" t="n">
-        <v>45.18512093943219</v>
+        <v>45.1851209394322</v>
       </c>
       <c r="H31" t="n">
-        <v>45.18512093943219</v>
+        <v>45.1851209394322</v>
       </c>
       <c r="I31" t="n">
-        <v>45.18512093943219</v>
+        <v>45.1851209394322</v>
       </c>
       <c r="J31" t="n">
-        <v>84.29736281211484</v>
+        <v>84.29736281211487</v>
       </c>
       <c r="K31" t="n">
-        <v>279.3332373447306</v>
+        <v>279.3332373447307</v>
       </c>
       <c r="L31" t="n">
-        <v>588.3189703166845</v>
+        <v>588.3189703166846</v>
       </c>
       <c r="M31" t="n">
-        <v>927.3430972235844</v>
+        <v>927.3430972235846</v>
       </c>
       <c r="N31" t="n">
         <v>1259.633641192499</v>
@@ -6648,25 +6648,25 @@
         <v>1882.785700159181</v>
       </c>
       <c r="S31" t="n">
-        <v>1697.294506672718</v>
+        <v>1882.785700159181</v>
       </c>
       <c r="T31" t="n">
-        <v>1692.484954962354</v>
+        <v>1651.314274021502</v>
       </c>
       <c r="U31" t="n">
-        <v>1407.100388213116</v>
+        <v>1365.929707272263</v>
       </c>
       <c r="V31" t="n">
-        <v>1141.12104303394</v>
+        <v>1099.950362093088</v>
       </c>
       <c r="W31" t="n">
-        <v>857.7906409651179</v>
+        <v>816.6199600242653</v>
       </c>
       <c r="X31" t="n">
-        <v>623.7103187481009</v>
+        <v>582.5396378072484</v>
       </c>
       <c r="Y31" t="n">
-        <v>400.5982575647442</v>
+        <v>359.4275766238917</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1287.644126526677</v>
+        <v>447.7686458228877</v>
       </c>
       <c r="C32" t="n">
-        <v>894.4686250296073</v>
+        <v>447.7686458228877</v>
       </c>
       <c r="D32" t="n">
-        <v>509.0274962462751</v>
+        <v>447.7686458228877</v>
       </c>
       <c r="E32" t="n">
-        <v>509.0274962462751</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="F32" t="n">
-        <v>509.0274962462751</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="G32" t="n">
-        <v>98.08097225220223</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="H32" t="n">
-        <v>98.08097225220223</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="I32" t="n">
-        <v>45.18512093943218</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="J32" t="n">
-        <v>113.0387735630033</v>
+        <v>374.191586034754</v>
       </c>
       <c r="K32" t="n">
-        <v>247.713846460716</v>
+        <v>508.8666589324667</v>
       </c>
       <c r="L32" t="n">
-        <v>806.8797180861891</v>
+        <v>699.9291408543027</v>
       </c>
       <c r="M32" t="n">
-        <v>1040.058677361931</v>
+        <v>933.1081001300444</v>
       </c>
       <c r="N32" t="n">
-        <v>1280.009691426092</v>
+        <v>1173.059114194205</v>
       </c>
       <c r="O32" t="n">
-        <v>1577.080569055878</v>
+        <v>1390.970132754472</v>
       </c>
       <c r="P32" t="n">
-        <v>1740.63693128915</v>
+        <v>1839.845044118937</v>
       </c>
       <c r="Q32" t="n">
-        <v>2160.047934141823</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="R32" t="n">
-        <v>2259.256046971609</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="S32" t="n">
-        <v>2259.256046971609</v>
+        <v>2143.244867627353</v>
       </c>
       <c r="T32" t="n">
-        <v>2045.456998000738</v>
+        <v>1929.445818656483</v>
       </c>
       <c r="U32" t="n">
-        <v>1789.881566956771</v>
+        <v>1929.445818656483</v>
       </c>
       <c r="V32" t="n">
-        <v>1789.881566956771</v>
+        <v>1929.445818656483</v>
       </c>
       <c r="W32" t="n">
-        <v>1789.881566956771</v>
+        <v>1558.44678362477</v>
       </c>
       <c r="X32" t="n">
-        <v>1684.134835606076</v>
+        <v>1168.994178557827</v>
       </c>
       <c r="Y32" t="n">
-        <v>1287.644126526677</v>
+        <v>772.5034694784279</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>791.0866094939977</v>
+        <v>791.0866094939979</v>
       </c>
       <c r="C33" t="n">
-        <v>640.4323790540899</v>
+        <v>640.43237905409</v>
       </c>
       <c r="D33" t="n">
         <v>510.3434116755702</v>
@@ -6767,46 +6767,46 @@
         <v>373.8969207864579</v>
       </c>
       <c r="F33" t="n">
-        <v>249.4651146695898</v>
+        <v>249.4651146695896</v>
       </c>
       <c r="G33" t="n">
-        <v>130.5910851427658</v>
+        <v>130.5910851427659</v>
       </c>
       <c r="H33" t="n">
-        <v>53.74588830340524</v>
+        <v>53.74588830340525</v>
       </c>
       <c r="I33" t="n">
-        <v>45.18512093943218</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="J33" t="n">
         <v>268.101686055657</v>
       </c>
       <c r="K33" t="n">
-        <v>367.0691141845815</v>
+        <v>775.5092262268079</v>
       </c>
       <c r="L33" t="n">
-        <v>530.252686393981</v>
+        <v>938.6927984362073</v>
       </c>
       <c r="M33" t="n">
-        <v>733.2621826024701</v>
+        <v>1141.702294644696</v>
       </c>
       <c r="N33" t="n">
-        <v>951.0103552972247</v>
+        <v>1359.450467339451</v>
       </c>
       <c r="O33" t="n">
-        <v>1510.176226922698</v>
+        <v>1544.204637917465</v>
       </c>
       <c r="P33" t="n">
-        <v>2069.342098548171</v>
+        <v>1827.821558849693</v>
       </c>
       <c r="Q33" t="n">
         <v>2210.539339166463</v>
       </c>
       <c r="R33" t="n">
-        <v>2259.256046971609</v>
+        <v>2259.25604697161</v>
       </c>
       <c r="S33" t="n">
-        <v>2146.350869343214</v>
+        <v>2146.350869343215</v>
       </c>
       <c r="T33" t="n">
         <v>1974.146616931621</v>
@@ -6824,7 +6824,7 @@
         <v>1122.197160859452</v>
       </c>
       <c r="Y33" t="n">
-        <v>942.882943934959</v>
+        <v>942.8829439349593</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>174.21955793259</v>
+        <v>274.1129311953656</v>
       </c>
       <c r="C34" t="n">
-        <v>45.18512093943218</v>
+        <v>103.9078132613548</v>
       </c>
       <c r="D34" t="n">
-        <v>45.18512093943218</v>
+        <v>103.9078132613548</v>
       </c>
       <c r="E34" t="n">
-        <v>45.18512093943218</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="F34" t="n">
-        <v>45.18512093943218</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="G34" t="n">
-        <v>45.18512093943218</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="H34" t="n">
-        <v>45.18512093943218</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="I34" t="n">
-        <v>45.18512093943218</v>
+        <v>45.18512093943219</v>
       </c>
       <c r="J34" t="n">
         <v>84.29736281211484</v>
@@ -6885,25 +6885,25 @@
         <v>1882.785700159181</v>
       </c>
       <c r="S34" t="n">
-        <v>1882.785700159181</v>
+        <v>1697.294506672718</v>
       </c>
       <c r="T34" t="n">
-        <v>1651.314274021501</v>
+        <v>1465.823080535039</v>
       </c>
       <c r="U34" t="n">
-        <v>1365.929707272263</v>
+        <v>1465.823080535039</v>
       </c>
       <c r="V34" t="n">
-        <v>1099.950362093087</v>
+        <v>1199.843735355863</v>
       </c>
       <c r="W34" t="n">
-        <v>816.6199600242649</v>
+        <v>916.5133332870405</v>
       </c>
       <c r="X34" t="n">
-        <v>582.5396378072479</v>
+        <v>682.4330110700236</v>
       </c>
       <c r="Y34" t="n">
-        <v>359.4275766238912</v>
+        <v>459.3209498866669</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1367.041115157222</v>
+        <v>560.6051301780049</v>
       </c>
       <c r="C35" t="n">
-        <v>1367.041115157222</v>
+        <v>560.6051301780049</v>
       </c>
       <c r="D35" t="n">
-        <v>1021.828712339742</v>
+        <v>560.6051301780049</v>
       </c>
       <c r="E35" t="n">
-        <v>717.7656279381051</v>
+        <v>215.3927273605246</v>
       </c>
       <c r="F35" t="n">
-        <v>372.5532251206247</v>
+        <v>215.3927273605246</v>
       </c>
       <c r="G35" t="n">
         <v>27.34082230314444</v>
@@ -6937,10 +6937,10 @@
         <v>27.34082230314444</v>
       </c>
       <c r="J35" t="n">
-        <v>95.19447492671557</v>
+        <v>95.19447492671563</v>
       </c>
       <c r="K35" t="n">
-        <v>229.8695478244282</v>
+        <v>229.8695478244283</v>
       </c>
       <c r="L35" t="n">
         <v>420.9320297462642</v>
@@ -6952,7 +6952,7 @@
         <v>894.0620030861669</v>
       </c>
       <c r="O35" t="n">
-        <v>1111.973021646434</v>
+        <v>1111.973021646433</v>
       </c>
       <c r="P35" t="n">
         <v>1275.529383879706</v>
@@ -6964,25 +6964,25 @@
         <v>1367.041115157222</v>
       </c>
       <c r="S35" t="n">
-        <v>1367.041115157222</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="T35" t="n">
-        <v>1367.041115157222</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="U35" t="n">
-        <v>1367.041115157222</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="V35" t="n">
-        <v>1367.041115157222</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="W35" t="n">
-        <v>1367.041115157222</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="X35" t="n">
-        <v>1367.041115157222</v>
+        <v>1251.029935812966</v>
       </c>
       <c r="Y35" t="n">
-        <v>1367.041115157222</v>
+        <v>905.8175329954852</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>444.5305110106842</v>
+        <v>568.9623171275524</v>
       </c>
       <c r="C36" t="n">
-        <v>293.8762805707764</v>
+        <v>418.3080866876446</v>
       </c>
       <c r="D36" t="n">
-        <v>163.7873131922567</v>
+        <v>288.2191193091249</v>
       </c>
       <c r="E36" t="n">
-        <v>27.34082230314444</v>
+        <v>151.7726284200126</v>
       </c>
       <c r="F36" t="n">
         <v>27.34082230314444</v>
@@ -7019,22 +7019,22 @@
         <v>250.2573874193692</v>
       </c>
       <c r="K36" t="n">
-        <v>404.3562692829152</v>
+        <v>349.2248155482937</v>
       </c>
       <c r="L36" t="n">
-        <v>567.5398414923147</v>
+        <v>512.4083877576932</v>
       </c>
       <c r="M36" t="n">
-        <v>770.5493377008039</v>
+        <v>715.4178839661823</v>
       </c>
       <c r="N36" t="n">
-        <v>988.2975103955584</v>
+        <v>933.1660566609369</v>
       </c>
       <c r="O36" t="n">
-        <v>1173.051680973572</v>
+        <v>1117.92022723895</v>
       </c>
       <c r="P36" t="n">
-        <v>1308.766698019697</v>
+        <v>1253.635244285075</v>
       </c>
       <c r="Q36" t="n">
         <v>1367.041115157222</v>
@@ -7046,22 +7046,22 @@
         <v>1254.135937528827</v>
       </c>
       <c r="T36" t="n">
-        <v>1081.931685117234</v>
+        <v>1132.605730847435</v>
       </c>
       <c r="U36" t="n">
-        <v>871.9465541906989</v>
+        <v>1132.605730847435</v>
       </c>
       <c r="V36" t="n">
-        <v>871.9465541906989</v>
+        <v>910.0657292185022</v>
       </c>
       <c r="W36" t="n">
-        <v>641.8293083239857</v>
+        <v>910.0657292185022</v>
       </c>
       <c r="X36" t="n">
-        <v>596.3268454516456</v>
+        <v>720.7586515685138</v>
       </c>
       <c r="Y36" t="n">
-        <v>596.3268454516456</v>
+        <v>720.7586515685138</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>498.5665604224951</v>
+        <v>664.4223721800812</v>
       </c>
       <c r="C37" t="n">
-        <v>498.5665604224951</v>
+        <v>494.2172542460704</v>
       </c>
       <c r="D37" t="n">
-        <v>498.5665604224951</v>
+        <v>494.2172542460704</v>
       </c>
       <c r="E37" t="n">
-        <v>498.5665604224951</v>
+        <v>494.2172542460704</v>
       </c>
       <c r="F37" t="n">
-        <v>341.2406256354681</v>
+        <v>336.8913194590434</v>
       </c>
       <c r="G37" t="n">
         <v>173.9806968973594</v>
@@ -7095,7 +7095,7 @@
         <v>27.34082230314444</v>
       </c>
       <c r="J37" t="n">
-        <v>66.45306417582711</v>
+        <v>66.45306417582709</v>
       </c>
       <c r="K37" t="n">
         <v>261.4889387084429</v>
@@ -7104,10 +7104,10 @@
         <v>570.4746716803968</v>
       </c>
       <c r="M37" t="n">
-        <v>908.8173476818092</v>
+        <v>633.8084782787489</v>
       </c>
       <c r="N37" t="n">
-        <v>975.7526097561368</v>
+        <v>743.88905619054</v>
       </c>
       <c r="O37" t="n">
         <v>1044.312646241304</v>
@@ -7119,28 +7119,28 @@
         <v>1367.041115157222</v>
       </c>
       <c r="R37" t="n">
-        <v>1333.260874419731</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S37" t="n">
-        <v>1333.260874419731</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="T37" t="n">
-        <v>1333.260874419731</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="U37" t="n">
-        <v>1047.876307670493</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="V37" t="n">
-        <v>781.8969624913175</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="W37" t="n">
-        <v>498.5665604224951</v>
+        <v>1083.710713088399</v>
       </c>
       <c r="X37" t="n">
-        <v>498.5665604224951</v>
+        <v>849.6303908713825</v>
       </c>
       <c r="Y37" t="n">
-        <v>498.5665604224951</v>
+        <v>849.6303908713825</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>331.4039067047811</v>
+        <v>465.9228540723892</v>
       </c>
       <c r="C38" t="n">
-        <v>27.34082230314446</v>
+        <v>465.9228540723892</v>
       </c>
       <c r="D38" t="n">
-        <v>27.34082230314446</v>
+        <v>465.9228540723892</v>
       </c>
       <c r="E38" t="n">
-        <v>27.34082230314446</v>
+        <v>120.7104512549089</v>
       </c>
       <c r="F38" t="n">
-        <v>27.34082230314446</v>
+        <v>120.7104512549089</v>
       </c>
       <c r="G38" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="H38" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="I38" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="J38" t="n">
-        <v>95.19447492671557</v>
+        <v>95.19447492671554</v>
       </c>
       <c r="K38" t="n">
         <v>229.8695478244282</v>
       </c>
       <c r="L38" t="n">
-        <v>420.9320297462642</v>
+        <v>420.9320297462641</v>
       </c>
       <c r="M38" t="n">
-        <v>654.1109890220059</v>
+        <v>654.1109890220058</v>
       </c>
       <c r="N38" t="n">
         <v>894.0620030861669</v>
@@ -7198,28 +7198,28 @@
         <v>1367.041115157222</v>
       </c>
       <c r="R38" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S38" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="T38" t="n">
-        <v>1367.041115157223</v>
+        <v>1153.242066186351</v>
       </c>
       <c r="U38" t="n">
-        <v>1367.041115157223</v>
+        <v>1153.242066186351</v>
       </c>
       <c r="V38" t="n">
-        <v>1367.041115157223</v>
+        <v>811.1352568898695</v>
       </c>
       <c r="W38" t="n">
-        <v>1367.041115157223</v>
+        <v>811.1352568898695</v>
       </c>
       <c r="X38" t="n">
-        <v>1021.828712339742</v>
+        <v>465.9228540723892</v>
       </c>
       <c r="Y38" t="n">
-        <v>676.6163095222616</v>
+        <v>465.9228540723892</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>27.34082230314446</v>
+        <v>108.8568086061454</v>
       </c>
       <c r="C39" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="D39" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="E39" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="F39" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="G39" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="H39" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="I39" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="J39" t="n">
-        <v>66.01359328150329</v>
+        <v>250.2573874193692</v>
       </c>
       <c r="K39" t="n">
-        <v>404.3562692829159</v>
+        <v>349.2248155482937</v>
       </c>
       <c r="L39" t="n">
-        <v>567.5398414923154</v>
+        <v>512.4083877576932</v>
       </c>
       <c r="M39" t="n">
-        <v>770.5493377008046</v>
+        <v>715.4178839661823</v>
       </c>
       <c r="N39" t="n">
-        <v>988.2975103955591</v>
+        <v>933.1660566609369</v>
       </c>
       <c r="O39" t="n">
-        <v>1173.051680973573</v>
+        <v>1117.92022723895</v>
       </c>
       <c r="P39" t="n">
-        <v>1308.766698019698</v>
+        <v>1260.049990214551</v>
       </c>
       <c r="Q39" t="n">
-        <v>1367.041115157223</v>
+        <v>1318.324407352076</v>
       </c>
       <c r="R39" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S39" t="n">
-        <v>1367.041115157223</v>
+        <v>1254.135937528827</v>
       </c>
       <c r="T39" t="n">
-        <v>1194.83686274563</v>
+        <v>1081.931685117234</v>
       </c>
       <c r="U39" t="n">
-        <v>1000.415698814233</v>
+        <v>1081.931685117234</v>
       </c>
       <c r="V39" t="n">
-        <v>777.8756971852999</v>
+        <v>859.3916834883009</v>
       </c>
       <c r="W39" t="n">
-        <v>547.7584513185868</v>
+        <v>629.2744376215878</v>
       </c>
       <c r="X39" t="n">
-        <v>358.4513736685985</v>
+        <v>439.9673599715995</v>
       </c>
       <c r="Y39" t="n">
-        <v>179.1371567441058</v>
+        <v>260.6531430471067</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>441.3103109967254</v>
+        <v>197.5459402371552</v>
       </c>
       <c r="C40" t="n">
-        <v>271.1051930627146</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="D40" t="n">
-        <v>271.1051930627146</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="E40" t="n">
-        <v>271.1051930627146</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="F40" t="n">
-        <v>113.7792582756876</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="G40" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="H40" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="I40" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="J40" t="n">
-        <v>27.34082230314446</v>
+        <v>66.45306417582711</v>
       </c>
       <c r="K40" t="n">
-        <v>57.78429802369692</v>
+        <v>261.4889387084429</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7700309956509</v>
+        <v>338.6111181148001</v>
       </c>
       <c r="M40" t="n">
-        <v>705.1127069970635</v>
+        <v>676.9537941162126</v>
       </c>
       <c r="N40" t="n">
-        <v>1037.403250965978</v>
+        <v>743.8890561905403</v>
       </c>
       <c r="O40" t="n">
-        <v>1337.826841016742</v>
+        <v>1044.312646241304</v>
       </c>
       <c r="P40" t="n">
-        <v>1367.041115157223</v>
+        <v>1282.03105676399</v>
       </c>
       <c r="Q40" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R40" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S40" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="T40" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="U40" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="V40" t="n">
-        <v>1367.041115157223</v>
+        <v>1101.061769978046</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.7107130884</v>
+        <v>839.9463423288302</v>
       </c>
       <c r="X40" t="n">
-        <v>849.6303908713834</v>
+        <v>605.8660201118132</v>
       </c>
       <c r="Y40" t="n">
-        <v>626.5183296880267</v>
+        <v>382.7539589284565</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>372.553225120625</v>
+        <v>372.5532251206247</v>
       </c>
       <c r="C41" t="n">
-        <v>372.553225120625</v>
+        <v>372.5532251206247</v>
       </c>
       <c r="D41" t="n">
-        <v>372.553225120625</v>
+        <v>372.5532251206247</v>
       </c>
       <c r="E41" t="n">
-        <v>372.553225120625</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="F41" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="G41" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="H41" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="I41" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="J41" t="n">
-        <v>95.19447492671611</v>
+        <v>95.19447492671566</v>
       </c>
       <c r="K41" t="n">
-        <v>229.8695478244289</v>
+        <v>229.8695478244284</v>
       </c>
       <c r="L41" t="n">
-        <v>420.9320297462649</v>
+        <v>420.9320297462643</v>
       </c>
       <c r="M41" t="n">
-        <v>654.1109890220066</v>
+        <v>654.1109890220059</v>
       </c>
       <c r="N41" t="n">
-        <v>894.0620030861676</v>
+        <v>894.0620030861669</v>
       </c>
       <c r="O41" t="n">
         <v>1111.973021646434</v>
@@ -7432,31 +7432,31 @@
         <v>1275.529383879706</v>
       </c>
       <c r="Q41" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R41" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S41" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="T41" t="n">
-        <v>1153.242066186352</v>
+        <v>1153.242066186351</v>
       </c>
       <c r="U41" t="n">
-        <v>897.6666351423842</v>
+        <v>897.6666351423837</v>
       </c>
       <c r="V41" t="n">
-        <v>555.5598258459025</v>
+        <v>897.6666351423837</v>
       </c>
       <c r="W41" t="n">
-        <v>372.553225120625</v>
+        <v>552.4542323249034</v>
       </c>
       <c r="X41" t="n">
-        <v>372.553225120625</v>
+        <v>552.4542323249034</v>
       </c>
       <c r="Y41" t="n">
-        <v>372.553225120625</v>
+        <v>552.4542323249034</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>568.9623171275524</v>
+        <v>387.8328230632541</v>
       </c>
       <c r="C42" t="n">
-        <v>418.3080866876446</v>
+        <v>237.1785926233463</v>
       </c>
       <c r="D42" t="n">
-        <v>288.2191193091249</v>
+        <v>237.1785926233463</v>
       </c>
       <c r="E42" t="n">
-        <v>151.7726284200127</v>
+        <v>237.1785926233463</v>
       </c>
       <c r="F42" t="n">
-        <v>27.34082230314446</v>
+        <v>112.7467865064781</v>
       </c>
       <c r="G42" t="n">
-        <v>27.34082230314446</v>
+        <v>112.7467865064781</v>
       </c>
       <c r="H42" t="n">
-        <v>27.34082230314446</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="I42" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="J42" t="n">
-        <v>55.52239243964181</v>
+        <v>250.2573874193692</v>
       </c>
       <c r="K42" t="n">
-        <v>154.4898205685663</v>
+        <v>355.6395614777691</v>
       </c>
       <c r="L42" t="n">
-        <v>317.6733927779658</v>
+        <v>518.8231336871686</v>
       </c>
       <c r="M42" t="n">
-        <v>520.6828889864549</v>
+        <v>721.8326298956578</v>
       </c>
       <c r="N42" t="n">
-        <v>738.4310616812095</v>
+        <v>939.5808025904123</v>
       </c>
       <c r="O42" t="n">
-        <v>923.1852322592231</v>
+        <v>1124.334973168426</v>
       </c>
       <c r="P42" t="n">
-        <v>1058.900249305348</v>
+        <v>1260.049990214551</v>
       </c>
       <c r="Q42" t="n">
-        <v>1318.324407352077</v>
+        <v>1318.324407352076</v>
       </c>
       <c r="R42" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S42" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="T42" t="n">
-        <v>1367.041115157223</v>
+        <v>1194.836862745629</v>
       </c>
       <c r="U42" t="n">
-        <v>1367.041115157223</v>
+        <v>1029.797148208889</v>
       </c>
       <c r="V42" t="n">
-        <v>1319.497192009708</v>
+        <v>807.2571465799556</v>
       </c>
       <c r="W42" t="n">
-        <v>1089.379946142995</v>
+        <v>577.1399007132425</v>
       </c>
       <c r="X42" t="n">
-        <v>900.0728684930066</v>
+        <v>387.8328230632541</v>
       </c>
       <c r="Y42" t="n">
-        <v>720.7586515685138</v>
+        <v>387.8328230632541</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>347.1387824686849</v>
+        <v>329.5395090381569</v>
       </c>
       <c r="C43" t="n">
-        <v>347.1387824686849</v>
+        <v>329.5395090381569</v>
       </c>
       <c r="D43" t="n">
-        <v>347.1387824686849</v>
+        <v>329.5395090381569</v>
       </c>
       <c r="E43" t="n">
-        <v>347.1387824686849</v>
+        <v>173.9806968973594</v>
       </c>
       <c r="F43" t="n">
-        <v>341.2406256354681</v>
+        <v>173.9806968973594</v>
       </c>
       <c r="G43" t="n">
         <v>173.9806968973594</v>
       </c>
       <c r="H43" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="I43" t="n">
-        <v>27.34082230314446</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="J43" t="n">
-        <v>27.34082230314446</v>
+        <v>66.45306417582711</v>
       </c>
       <c r="K43" t="n">
-        <v>57.52162409307887</v>
+        <v>261.4889387084429</v>
       </c>
       <c r="L43" t="n">
-        <v>366.5073570650328</v>
+        <v>570.4746716803968</v>
       </c>
       <c r="M43" t="n">
-        <v>704.8500330664453</v>
+        <v>908.8173476818092</v>
       </c>
       <c r="N43" t="n">
-        <v>952.3931925727461</v>
+        <v>975.7526097561368</v>
       </c>
       <c r="O43" t="n">
-        <v>1252.81678262351</v>
+        <v>1044.312646241304</v>
       </c>
       <c r="P43" t="n">
-        <v>1282.031056763991</v>
+        <v>1282.03105676399</v>
       </c>
       <c r="Q43" t="n">
-        <v>1367.041115157223</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="R43" t="n">
-        <v>1367.041115157223</v>
+        <v>1287.839608093954</v>
       </c>
       <c r="S43" t="n">
-        <v>1367.041115157223</v>
+        <v>1287.839608093954</v>
       </c>
       <c r="T43" t="n">
-        <v>1367.041115157223</v>
+        <v>1104.015482149928</v>
       </c>
       <c r="U43" t="n">
-        <v>1081.656548407984</v>
+        <v>818.6309154006893</v>
       </c>
       <c r="V43" t="n">
-        <v>815.6772032288085</v>
+        <v>552.6515702215136</v>
       </c>
       <c r="W43" t="n">
-        <v>532.3468011599862</v>
+        <v>552.6515702215136</v>
       </c>
       <c r="X43" t="n">
-        <v>532.3468011599862</v>
+        <v>552.6515702215136</v>
       </c>
       <c r="Y43" t="n">
-        <v>532.3468011599862</v>
+        <v>329.5395090381569</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1367.041115157222</v>
+        <v>1062.978030755585</v>
       </c>
       <c r="C44" t="n">
-        <v>1367.041115157222</v>
+        <v>1062.978030755585</v>
       </c>
       <c r="D44" t="n">
-        <v>1021.828712339742</v>
+        <v>1062.978030755585</v>
       </c>
       <c r="E44" t="n">
-        <v>676.6163095222614</v>
+        <v>717.7656279381049</v>
       </c>
       <c r="F44" t="n">
         <v>372.5532251206247</v>
@@ -7648,19 +7648,19 @@
         <v>27.34082230314444</v>
       </c>
       <c r="J44" t="n">
-        <v>95.19447492671557</v>
+        <v>95.19447492671543</v>
       </c>
       <c r="K44" t="n">
-        <v>229.8695478244282</v>
+        <v>229.8695478244281</v>
       </c>
       <c r="L44" t="n">
-        <v>420.9320297462643</v>
+        <v>420.9320297462639</v>
       </c>
       <c r="M44" t="n">
-        <v>654.1109890220062</v>
+        <v>654.1109890220055</v>
       </c>
       <c r="N44" t="n">
-        <v>894.0620030861672</v>
+        <v>894.0620030861669</v>
       </c>
       <c r="O44" t="n">
         <v>1111.973021646434</v>
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>183.9811077195986</v>
+        <v>163.5731897489665</v>
       </c>
       <c r="C45" t="n">
-        <v>183.9811077195986</v>
+        <v>163.5731897489665</v>
       </c>
       <c r="D45" t="n">
-        <v>151.7726284200126</v>
+        <v>163.5731897489665</v>
       </c>
       <c r="E45" t="n">
-        <v>151.7726284200126</v>
+        <v>163.5731897489665</v>
       </c>
       <c r="F45" t="n">
-        <v>27.34082230314444</v>
+        <v>163.5731897489665</v>
       </c>
       <c r="G45" t="n">
-        <v>27.34082230314444</v>
+        <v>112.7467865064781</v>
       </c>
       <c r="H45" t="n">
-        <v>27.34082230314444</v>
+        <v>35.90158966711751</v>
       </c>
       <c r="I45" t="n">
         <v>27.34082230314444</v>
       </c>
       <c r="J45" t="n">
-        <v>55.52239243964179</v>
+        <v>250.2573874193692</v>
       </c>
       <c r="K45" t="n">
-        <v>355.6395614777691</v>
+        <v>355.639561477769</v>
       </c>
       <c r="L45" t="n">
-        <v>518.8231336871686</v>
+        <v>518.8231336871685</v>
       </c>
       <c r="M45" t="n">
-        <v>721.8326298956578</v>
+        <v>721.8326298956575</v>
       </c>
       <c r="N45" t="n">
-        <v>939.5808025904123</v>
+        <v>939.5808025904121</v>
       </c>
       <c r="O45" t="n">
         <v>1124.334973168426</v>
       </c>
       <c r="P45" t="n">
-        <v>1260.049990214551</v>
+        <v>1260.04999021455</v>
       </c>
       <c r="Q45" t="n">
         <v>1318.324407352076</v>
@@ -7757,22 +7757,22 @@
         <v>1367.041115157222</v>
       </c>
       <c r="T45" t="n">
-        <v>1367.041115157222</v>
+        <v>1194.836862745629</v>
       </c>
       <c r="U45" t="n">
-        <v>1157.055984230687</v>
+        <v>984.8517318190936</v>
       </c>
       <c r="V45" t="n">
-        <v>934.5159826017541</v>
+        <v>762.3117301901607</v>
       </c>
       <c r="W45" t="n">
-        <v>704.398736735041</v>
+        <v>532.1944843234476</v>
       </c>
       <c r="X45" t="n">
-        <v>515.0916590850527</v>
+        <v>342.8874066734592</v>
       </c>
       <c r="Y45" t="n">
-        <v>335.7774421605599</v>
+        <v>163.5731897489665</v>
       </c>
     </row>
     <row r="46">
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1083.161974072522</v>
+        <v>298.2664789429683</v>
       </c>
       <c r="C46" t="n">
-        <v>912.9568561385108</v>
+        <v>298.2664789429683</v>
       </c>
       <c r="D46" t="n">
-        <v>757.3237430410256</v>
+        <v>298.2664789429683</v>
       </c>
       <c r="E46" t="n">
-        <v>601.7649309002281</v>
+        <v>298.2664789429683</v>
       </c>
       <c r="F46" t="n">
-        <v>444.438996113201</v>
+        <v>140.9405441559413</v>
       </c>
       <c r="G46" t="n">
-        <v>277.1790673750924</v>
+        <v>140.9405441559413</v>
       </c>
       <c r="H46" t="n">
-        <v>130.5391927808774</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="I46" t="n">
         <v>27.34082230314444</v>
       </c>
       <c r="J46" t="n">
-        <v>66.45306417582711</v>
+        <v>27.34082230314444</v>
       </c>
       <c r="K46" t="n">
-        <v>261.4889387084429</v>
+        <v>222.3766968357602</v>
       </c>
       <c r="L46" t="n">
-        <v>319.5487426196202</v>
+        <v>531.3624298077142</v>
       </c>
       <c r="M46" t="n">
-        <v>657.8914186210327</v>
+        <v>594.6962364060662</v>
       </c>
       <c r="N46" t="n">
-        <v>990.181962589947</v>
+        <v>743.88905619054</v>
       </c>
       <c r="O46" t="n">
         <v>1044.312646241304</v>
@@ -7830,28 +7830,28 @@
         <v>1367.041115157222</v>
       </c>
       <c r="R46" t="n">
-        <v>1287.839608093954</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="S46" t="n">
-        <v>1102.348414607491</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="T46" t="n">
-        <v>1102.348414607491</v>
+        <v>1367.041115157222</v>
       </c>
       <c r="U46" t="n">
-        <v>1102.348414607491</v>
+        <v>1081.656548407983</v>
       </c>
       <c r="V46" t="n">
-        <v>1102.348414607491</v>
+        <v>815.6772032288076</v>
       </c>
       <c r="W46" t="n">
-        <v>1102.348414607491</v>
+        <v>532.3468011599853</v>
       </c>
       <c r="X46" t="n">
-        <v>1102.348414607491</v>
+        <v>298.2664789429683</v>
       </c>
       <c r="Y46" t="n">
-        <v>1102.348414607491</v>
+        <v>298.2664789429683</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423475</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304931</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
         <v>149.7250515977273</v>
@@ -7996,10 +7996,10 @@
         <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409266</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183936</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8063,22 +8063,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691962</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931331</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416805</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888889028</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931332</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591538</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8139,13 +8139,13 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K4" t="n">
-        <v>83.85861781084938</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L4" t="n">
-        <v>87.67503958280628</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M4" t="n">
-        <v>90.30175956594466</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N4" t="n">
         <v>82.99560390240157</v>
@@ -8154,10 +8154,10 @@
         <v>89.9967499936978</v>
       </c>
       <c r="P4" t="n">
-        <v>89.52320263194738</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.47825105914119</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.307400022270144</v>
+        <v>2.307400022270201</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>6.479541342904383</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>203.1815564739425</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.96522144053661</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M13" t="n">
         <v>277.7867367707681</v>
       </c>
       <c r="N13" t="n">
-        <v>268.0356382773604</v>
+        <v>106.0081357203071</v>
       </c>
       <c r="O13" t="n">
-        <v>254.3449995307766</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.336840258061855</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.9350150692923</v>
+        <v>16.06626921754309</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>55.68833710567853</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.479541342904923</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>71.01380490566048</v>
+        <v>21.80500914288649</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,22 +9084,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.96522144053662</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2653272026442721</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L16" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M16" t="n">
-        <v>277.7867367707682</v>
+        <v>277.7867367707681</v>
       </c>
       <c r="N16" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O16" t="n">
-        <v>254.3449995307766</v>
+        <v>48.58273621285093</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.479541342905151</v>
+        <v>252.3903522367166</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>21.80500914288649</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>52.4725364634484</v>
+        <v>12.96522144053662</v>
       </c>
       <c r="K19" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>277.7867367707682</v>
       </c>
       <c r="N19" t="n">
-        <v>43.58112710854992</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O19" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P19" t="n">
-        <v>210.6102387699041</v>
+        <v>0.2653272026442686</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.9350150692923</v>
+        <v>16.06626921754308</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>75.46196456801611</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>176.9283876686999</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>55.68833710567881</v>
       </c>
       <c r="R21" t="n">
         <v>21.80500914288649</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>52.4725364634484</v>
+        <v>12.96522144053662</v>
       </c>
       <c r="K22" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M22" t="n">
-        <v>277.7867367707681</v>
+        <v>277.7867367707682</v>
       </c>
       <c r="N22" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O22" t="n">
-        <v>48.58273621285093</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.2653272026442686</v>
       </c>
       <c r="Q22" t="n">
         <v>16.06626921754308</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>79.95945360557562</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>371.82160576125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>187.9903396983905</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>211.1883073913156</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>399.982120622297</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>149.395862511216</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>21.80500914288649</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>288.2005546779719</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>187.9903396983903</v>
       </c>
       <c r="Q26" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
-        <v>2.307400022270173</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>217.0952696945562</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,10 +9965,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>344.8663625562814</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>149.395862511216</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>187.9903396983901</v>
+        <v>428.7785845734958</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>190.6333555339283</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>102.5176150018526</v>
+        <v>2.307400022270173</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>149.3958625112159</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>378.1936374216765</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>295.6248090885015</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>371.8216057612498</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>79.95945360557482</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>288.200554677972</v>
       </c>
       <c r="Q32" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
-        <v>102.5176150018526</v>
+        <v>2.307400022270173</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>378.1936374216764</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.7281359387358</v>
+        <v>149.3958625112155</v>
       </c>
       <c r="Q33" t="n">
-        <v>83.76042775835</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10667,7 +10667,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>55.68833710567833</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>55.68833710567812</v>
       </c>
       <c r="R36" t="n">
         <v>21.80500914288649</v>
@@ -10752,13 +10752,13 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M37" t="n">
-        <v>277.7867367707681</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>43.58112710854901</v>
       </c>
       <c r="O37" t="n">
-        <v>20.13938986855786</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P37" t="n">
         <v>210.6102387699041</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>2.307400022271073</v>
+        <v>2.307400022270173</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>10.59717256753684</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>241.7931796691799</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>6.479541342904497</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>21.80500914288649</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.96522144053662</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2653272026444995</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L40" t="n">
-        <v>253.4605344048249</v>
+        <v>19.25492474260598</v>
       </c>
       <c r="M40" t="n">
-        <v>277.7867367707682</v>
+        <v>277.7867367707681</v>
       </c>
       <c r="N40" t="n">
-        <v>268.0356382773604</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.06626921754308</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>6.479541342904426</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>203.1815564739429</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.96522144053662</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L43" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M43" t="n">
-        <v>277.7867367707682</v>
+        <v>277.7867367707681</v>
       </c>
       <c r="N43" t="n">
-        <v>182.4322196282557</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>254.3449995307766</v>
+        <v>20.13938986855786</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q43" t="n">
         <v>101.9350150692923</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>2.307400022270173</v>
+        <v>2.307400022270201</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>203.1815564739422</v>
+        <v>6.479541342904426</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11454,22 +11454,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>52.4725364634484</v>
+        <v>12.96522144053664</v>
       </c>
       <c r="K46" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
-        <v>277.7867367707681</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>268.0356382773604</v>
+        <v>83.08844213146088</v>
       </c>
       <c r="O46" t="n">
-        <v>5.564285996022313</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
         <v>210.6102387699041</v>
@@ -22558,10 +22558,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.7254940853206</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956875448</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23263,22 +23263,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>65.31611118054934</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>56.79741084531537</v>
       </c>
       <c r="F11" t="n">
-        <v>70.96521529601637</v>
+        <v>70.96521529601648</v>
       </c>
       <c r="G11" t="n">
-        <v>65.07677996482646</v>
+        <v>406.8370587541321</v>
       </c>
       <c r="H11" t="n">
-        <v>112.2008226997576</v>
+        <v>298.3722087065644</v>
       </c>
       <c r="I11" t="n">
-        <v>52.36689279964233</v>
+        <v>52.36689279964236</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.0196767335278</v>
@@ -23326,7 +23326,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>50.76552319929925</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>43.05970743010405</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23348,7 +23348,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>117.6852892315554</v>
@@ -23357,7 +23357,7 @@
         <v>76.07674487096699</v>
       </c>
       <c r="I12" t="n">
-        <v>8.475159690333321</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>48.51606790476114</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>126.6500437170005</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
         <v>154.0032240193895</v>
@@ -23430,10 +23430,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I13" t="n">
         <v>102.1663867729557</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>78.40949199263521</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T13" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>181.8212523743995</v>
       </c>
     </row>
     <row r="14">
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>54.72951946497727</v>
+        <v>54.72951946497733</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>325.9928169006765</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>56.79741084531526</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>70.96521529601642</v>
       </c>
       <c r="G14" t="n">
         <v>406.8370587541321</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.0196767335278</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -23560,10 +23560,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>84.53562545865327</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.76552319929925</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23576,22 +23576,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>117.6852892315554</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>76.07674487096699</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23627,16 +23627,16 @@
         <v>111.7761258521111</v>
       </c>
       <c r="T15" t="n">
-        <v>97.83484635624752</v>
+        <v>23.88348701552079</v>
       </c>
       <c r="U15" t="n">
-        <v>207.8852796172697</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>166.9638573420299</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
@@ -23703,22 +23703,22 @@
         <v>78.40949199263522</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>126.5276412536037</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23734,19 +23734,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>47.48346769279306</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>56.79741084531526</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>70.96521529601637</v>
       </c>
       <c r="G17" t="n">
-        <v>65.07677996482641</v>
+        <v>406.8370587541321</v>
       </c>
       <c r="H17" t="n">
         <v>298.3722087065644</v>
@@ -23791,13 +23791,13 @@
         <v>253.0196767335278</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>25.52876589208972</v>
+        <v>66.26659112377496</v>
       </c>
       <c r="X17" t="n">
-        <v>81.4610878728646</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23819,7 +23819,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>123.1874880556995</v>
@@ -23831,7 +23831,7 @@
         <v>76.07674487096699</v>
       </c>
       <c r="I18" t="n">
-        <v>8.475159690333328</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>111.7761258521111</v>
+        <v>100.2594289603756</v>
       </c>
       <c r="T18" t="n">
-        <v>15.40832732518696</v>
+        <v>170.4822098874772</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>139.3700633123832</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>102.1663867729557</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>160.3736227905783</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.530721081746</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>54.72951946497739</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>47.48346769279317</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -23980,10 +23980,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>70.96521529601637</v>
       </c>
       <c r="G20" t="n">
-        <v>406.8370587541321</v>
+        <v>217.5911351615364</v>
       </c>
       <c r="H20" t="n">
         <v>298.3722087065644</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>25.48967247435559</v>
+        <v>211.6610584811623</v>
       </c>
       <c r="U20" t="n">
         <v>253.0196767335278</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>25.52876589208978</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.76552319929937</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>123.1874880556995</v>
@@ -24068,7 +24068,7 @@
         <v>76.07674487096699</v>
       </c>
       <c r="I21" t="n">
-        <v>8.475159690333328</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>3.099747100786232</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>207.8852796172697</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>88.91813443931905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24141,10 +24141,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I22" t="n">
         <v>102.1663867729557</v>
@@ -24177,16 +24177,16 @@
         <v>78.40949199263522</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>36.57685538740449</v>
       </c>
       <c r="T22" t="n">
-        <v>229.1567118763024</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -24195,7 +24195,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>23.36446383738979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24214,10 +24214,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>247.1445482211255</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>114.8510675508137</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>364.0635071522771</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5873294507275</v>
+        <v>97.02997587417723</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.1573399054809</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -24457,10 +24457,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>406.8370587541321</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>298.3722087065644</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>52.36689279964234</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>184.3437183555302</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>260.9039993655379</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24609,7 +24609,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>40.09699025981214</v>
+        <v>145.1734758482728</v>
       </c>
       <c r="I28" t="n">
         <v>102.1663867729557</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>42.60777053350242</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>298.6970037342879</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>298.3722087065644</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>81.84580354597873</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.0196767335278</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>11.40625964644531</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
@@ -24888,10 +24888,10 @@
         <v>78.40949199263522</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T31" t="n">
-        <v>224.3952556830424</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>75.00232283529812</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>406.8370587541321</v>
       </c>
       <c r="H32" t="n">
         <v>298.3722087065644</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>52.36689279964234</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0196767335278</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>280.8688149790855</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>40.75897413144448</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>95.8677586206861</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
@@ -25125,13 +25125,13 @@
         <v>78.40949199263522</v>
       </c>
       <c r="S34" t="n">
-        <v>183.6362815515982</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>54.72951946497744</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>39.82643870619341</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>97.53523607700066</v>
+        <v>56.79741084531543</v>
       </c>
       <c r="F35" t="n">
-        <v>70.96521529601648</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>65.07677996482659</v>
+        <v>220.6656727473258</v>
       </c>
       <c r="H35" t="n">
         <v>298.3722087065644</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>114.8510675508137</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>211.6610584811623</v>
@@ -25222,7 +25222,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>50.76552319929942</v>
       </c>
     </row>
     <row r="36">
@@ -25244,7 +25244,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>117.6852892315554</v>
@@ -25286,19 +25286,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>50.16730527289941</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>207.8852796172697</v>
       </c>
       <c r="V36" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>142.3665686298717</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>177.5210747552478</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>4.305813114660424</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.96705366251947</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S37" t="n">
         <v>183.6362815515982</v>
@@ -25368,16 +25368,16 @@
         <v>229.1567118763024</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.530721081746</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>54.72951946497722</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>88.2212929244784</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>56.79741084531537</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>406.8370587541321</v>
+        <v>314.4011260918853</v>
       </c>
       <c r="H38" t="n">
         <v>298.3722087065644</v>
@@ -25444,22 +25444,22 @@
         <v>114.8510675508137</v>
       </c>
       <c r="T38" t="n">
-        <v>211.6610584811623</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>253.0196767335278</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>43.79780022696804</v>
+        <v>43.79780022696821</v>
       </c>
       <c r="Y38" t="n">
-        <v>50.7655231992992</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>68.44686169553781</v>
       </c>
       <c r="D39" t="n">
         <v>128.7880777047345</v>
@@ -25520,13 +25520,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>111.7761258521111</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>15.40832732518697</v>
+        <v>207.8852796172697</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>80.01327783790983</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H40" t="n">
         <v>145.1734758482728</v>
@@ -25608,10 +25608,10 @@
         <v>282.530721081746</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>21.99282467541008</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>218.3878011220471</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -25636,10 +25636,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>56.79741084531537</v>
       </c>
       <c r="F41" t="n">
-        <v>70.96521529601631</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>406.8370587541321</v>
@@ -25687,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>186.1125099633706</v>
+        <v>25.52876589208989</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>117.6852892315554</v>
       </c>
       <c r="H42" t="n">
-        <v>76.07674487096699</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>8.475159690333328</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,13 +25760,13 @@
         <v>111.7761258521111</v>
       </c>
       <c r="T42" t="n">
-        <v>170.4822098874772</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>207.8852796172697</v>
+        <v>44.49596222589673</v>
       </c>
       <c r="V42" t="n">
-        <v>173.246117696604</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -25794,13 +25794,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>149.9135001742721</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>78.40949199263522</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>183.6362815515982</v>
       </c>
       <c r="T43" t="n">
-        <v>229.1567118763024</v>
+        <v>47.17082719171614</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>95.46734469666268</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>39.82643870619341</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>56.79741084531537</v>
+        <v>56.79741084531543</v>
       </c>
       <c r="F44" t="n">
-        <v>111.7030405277017</v>
+        <v>70.96521529601654</v>
       </c>
       <c r="G44" t="n">
-        <v>65.07677996482659</v>
+        <v>65.07677996482664</v>
       </c>
       <c r="H44" t="n">
         <v>298.3722087065644</v>
       </c>
       <c r="I44" t="n">
-        <v>52.36689279964234</v>
+        <v>52.36689279964236</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>96.90168319814438</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>117.6852892315554</v>
+        <v>67.36715002149198</v>
       </c>
       <c r="H45" t="n">
-        <v>76.07674487096699</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>8.475159690333328</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>111.7761258521111</v>
       </c>
       <c r="T45" t="n">
-        <v>170.4822098874772</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>164.3613623747682</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5873294507275</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>32.70975121400392</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>102.1663867729557</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>78.40949199263522</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.6362815515982</v>
       </c>
       <c r="T46" t="n">
         <v>229.1567118763024</v>
       </c>
       <c r="U46" t="n">
-        <v>282.530721081746</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>890613.7345938102</v>
+        <v>890613.7345938097</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>443939.1035106984</v>
+        <v>443939.1035106982</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>443939.1035106984</v>
+        <v>443939.1035106983</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>443939.1035106984</v>
+        <v>443939.1035106983</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>443939.1035106982</v>
+        <v>443939.1035106983</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>617873.4140084211</v>
+        <v>617873.4140084214</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>617873.4140084212</v>
+        <v>617873.4140084214</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>617873.4140084212</v>
+        <v>617873.4140084214</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>617873.4140084211</v>
+        <v>617873.4140084212</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>443939.1035106982</v>
+        <v>443939.1035106981</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>443939.1035106983</v>
+        <v>443939.1035106982</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>413768.2090238494</v>
+        <v>413768.2090238492</v>
       </c>
       <c r="C2" t="n">
         <v>413768.2090238492</v>
@@ -26331,25 +26331,25 @@
         <v>211599.1448611348</v>
       </c>
       <c r="H2" t="n">
-        <v>211599.1448611348</v>
+        <v>211599.1448611349</v>
       </c>
       <c r="I2" t="n">
-        <v>279125.1874917317</v>
+        <v>279125.1874917318</v>
       </c>
       <c r="J2" t="n">
-        <v>279125.1874917317</v>
+        <v>279125.1874917318</v>
       </c>
       <c r="K2" t="n">
-        <v>279125.1874917316</v>
+        <v>279125.1874917319</v>
       </c>
       <c r="L2" t="n">
-        <v>279125.1874917316</v>
+        <v>279125.1874917319</v>
       </c>
       <c r="M2" t="n">
         <v>211599.1448611347</v>
       </c>
       <c r="N2" t="n">
-        <v>211599.1448611348</v>
+        <v>211599.1448611347</v>
       </c>
       <c r="O2" t="n">
         <v>211599.1448611348</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.656612873077393e-10</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>540519.1432189251</v>
+        <v>540519.1432189248</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>59314.67172075346</v>
+        <v>59314.67172075344</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>29582.14604844199</v>
+        <v>29582.14604844191</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370028.2700183724</v>
+        <v>370028.2700183726</v>
       </c>
       <c r="C4" t="n">
-        <v>370028.2700183725</v>
+        <v>370028.2700183726</v>
       </c>
       <c r="D4" t="n">
-        <v>370028.2700183725</v>
+        <v>370028.2700183726</v>
       </c>
       <c r="E4" t="n">
-        <v>11837.20891194997</v>
+        <v>11837.20891194998</v>
       </c>
       <c r="F4" t="n">
         <v>11837.20891194998</v>
       </c>
       <c r="G4" t="n">
-        <v>11837.20891194999</v>
+        <v>11837.20891194998</v>
       </c>
       <c r="H4" t="n">
-        <v>11837.20891194997</v>
+        <v>11837.20891194998</v>
       </c>
       <c r="I4" t="n">
-        <v>47963.25080319448</v>
+        <v>47963.25080319449</v>
       </c>
       <c r="J4" t="n">
-        <v>47963.25080319445</v>
+        <v>47963.25080319447</v>
       </c>
       <c r="K4" t="n">
-        <v>47963.25080319447</v>
+        <v>47963.25080319449</v>
       </c>
       <c r="L4" t="n">
-        <v>47963.25080319445</v>
+        <v>47963.25080319446</v>
       </c>
       <c r="M4" t="n">
         <v>11837.20891194997</v>
       </c>
       <c r="N4" t="n">
-        <v>11837.20891195001</v>
+        <v>11837.20891194997</v>
       </c>
       <c r="O4" t="n">
-        <v>11837.20891194999</v>
+        <v>11837.20891194997</v>
       </c>
       <c r="P4" t="n">
         <v>11837.20891194997</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33627.60000000009</v>
+        <v>33627.6</v>
       </c>
       <c r="C5" t="n">
         <v>33627.6</v>
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>32676.91371957395</v>
+        <v>32676.91371957393</v>
       </c>
       <c r="F5" t="n">
-        <v>32676.91371957395</v>
+        <v>32676.91371957394</v>
       </c>
       <c r="G5" t="n">
         <v>32676.91371957395</v>
       </c>
       <c r="H5" t="n">
-        <v>32676.91371957394</v>
+        <v>32676.91371957395</v>
       </c>
       <c r="I5" t="n">
         <v>46238.58068315263</v>
       </c>
       <c r="J5" t="n">
-        <v>46238.58068315261</v>
+        <v>46238.58068315263</v>
       </c>
       <c r="K5" t="n">
+        <v>46238.58068315263</v>
+      </c>
+      <c r="L5" t="n">
         <v>46238.58068315262</v>
       </c>
-      <c r="L5" t="n">
-        <v>46238.58068315261</v>
-      </c>
       <c r="M5" t="n">
+        <v>32676.91371957393</v>
+      </c>
+      <c r="N5" t="n">
         <v>32676.91371957394</v>
       </c>
-      <c r="N5" t="n">
-        <v>32676.91371957395</v>
-      </c>
       <c r="O5" t="n">
-        <v>32676.91371957395</v>
+        <v>32676.91371957394</v>
       </c>
       <c r="P5" t="n">
-        <v>32676.91371957394</v>
+        <v>32676.91371957393</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10112.33900547645</v>
+        <v>10108.0094376902</v>
       </c>
       <c r="C6" t="n">
-        <v>10112.33900547714</v>
+        <v>10108.0094376902</v>
       </c>
       <c r="D6" t="n">
-        <v>10112.33900547674</v>
+        <v>10108.0094376902</v>
       </c>
       <c r="E6" t="n">
-        <v>-373434.1209893142</v>
+        <v>-374317.4464882425</v>
       </c>
       <c r="F6" t="n">
-        <v>167085.0222296109</v>
+        <v>166201.6967306822</v>
       </c>
       <c r="G6" t="n">
-        <v>167085.0222296109</v>
+        <v>166201.6967306823</v>
       </c>
       <c r="H6" t="n">
-        <v>167085.0222296109</v>
+        <v>166201.6967306824</v>
       </c>
       <c r="I6" t="n">
-        <v>125608.6842846312</v>
+        <v>125018.9502754009</v>
       </c>
       <c r="J6" t="n">
-        <v>184923.3560053846</v>
+        <v>184333.6219961543</v>
       </c>
       <c r="K6" t="n">
-        <v>184923.3560053848</v>
+        <v>184333.6219961544</v>
       </c>
       <c r="L6" t="n">
-        <v>184923.3560053845</v>
+        <v>184333.6219961544</v>
       </c>
       <c r="M6" t="n">
-        <v>137502.8761811688</v>
+        <v>136619.5506822402</v>
       </c>
       <c r="N6" t="n">
-        <v>167085.0222296108</v>
+        <v>166201.6967306822</v>
       </c>
       <c r="O6" t="n">
-        <v>167085.0222296109</v>
+        <v>166201.6967306822</v>
       </c>
       <c r="P6" t="n">
-        <v>167085.0222296108</v>
+        <v>166201.6967306821</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>545.7747141827598</v>
+        <v>545.7747141827596</v>
       </c>
       <c r="F3" t="n">
         <v>545.7747141827597</v>
@@ -26779,7 +26779,7 @@
         <v>545.7747141827597</v>
       </c>
       <c r="P3" t="n">
-        <v>545.7747141827597</v>
+        <v>545.7747141827596</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -26798,37 +26798,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.7602787893056</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="F4" t="n">
         <v>341.7602787893056</v>
       </c>
       <c r="G4" t="n">
-        <v>341.7602787893057</v>
+        <v>341.7602787893056</v>
       </c>
       <c r="H4" t="n">
-        <v>341.7602787893055</v>
+        <v>341.7602787893056</v>
       </c>
       <c r="I4" t="n">
         <v>564.8140117429025</v>
       </c>
       <c r="J4" t="n">
-        <v>564.8140117429023</v>
+        <v>564.8140117429025</v>
       </c>
       <c r="K4" t="n">
+        <v>564.8140117429025</v>
+      </c>
+      <c r="L4" t="n">
         <v>564.8140117429024</v>
-      </c>
-      <c r="L4" t="n">
-        <v>564.8140117429023</v>
       </c>
       <c r="M4" t="n">
         <v>341.7602787893055</v>
       </c>
       <c r="N4" t="n">
-        <v>341.7602787893057</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="O4" t="n">
-        <v>341.7602787893057</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="P4" t="n">
         <v>341.7602787893055</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>545.7747141827598</v>
+        <v>545.7747141827596</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.234536171664231e-12</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.7602787893056</v>
+        <v>341.7602787893053</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>223.053732953597</v>
+        <v>223.0537329535969</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.282916539971954e-12</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>118.7065458357089</v>
+        <v>118.7065458357085</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7602787893056</v>
+        <v>341.7602787893053</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346182</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27472,13 +27472,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488528</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540368</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820612</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67787267091471</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -27590,22 +27590,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134468</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405166</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.3195517273827</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948453</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715217</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.194069202744761</v>
+        <v>2.19406920274476</v>
       </c>
       <c r="H11" t="n">
-        <v>22.47001122260979</v>
+        <v>22.47001122260978</v>
       </c>
       <c r="I11" t="n">
-        <v>84.58685293881749</v>
+        <v>84.58685293881746</v>
       </c>
       <c r="J11" t="n">
-        <v>186.2188809964584</v>
+        <v>186.2188809964583</v>
       </c>
       <c r="K11" t="n">
-        <v>279.0938303486441</v>
+        <v>279.093830348644</v>
       </c>
       <c r="L11" t="n">
-        <v>346.2405757121442</v>
+        <v>346.2405757121441</v>
       </c>
       <c r="M11" t="n">
-        <v>385.2593538964563</v>
+        <v>385.2593538964562</v>
       </c>
       <c r="N11" t="n">
-        <v>391.493253018755</v>
+        <v>391.4932530187548</v>
       </c>
       <c r="O11" t="n">
-        <v>369.6759773839617</v>
+        <v>369.6759773839615</v>
       </c>
       <c r="P11" t="n">
-        <v>315.5098939412003</v>
+        <v>315.5098939412002</v>
       </c>
       <c r="Q11" t="n">
-        <v>236.9347906179035</v>
+        <v>236.9347906179034</v>
       </c>
       <c r="R11" t="n">
         <v>137.8231995569157</v>
       </c>
       <c r="S11" t="n">
-        <v>49.9973519575463</v>
+        <v>49.99735195754628</v>
       </c>
       <c r="T11" t="n">
-        <v>9.604537935015198</v>
+        <v>9.604537935015193</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1755255362195809</v>
+        <v>0.1755255362195808</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.173930517298766</v>
       </c>
       <c r="H12" t="n">
-        <v>11.33769736443809</v>
+        <v>11.33769736443808</v>
       </c>
       <c r="I12" t="n">
-        <v>40.4182217578742</v>
+        <v>40.41822175787418</v>
       </c>
       <c r="J12" t="n">
         <v>110.9106897944418</v>
@@ -31846,34 +31846,34 @@
         <v>189.5640344534591</v>
       </c>
       <c r="L12" t="n">
-        <v>254.8922379775238</v>
+        <v>254.8922379775237</v>
       </c>
       <c r="M12" t="n">
-        <v>297.4472192296041</v>
+        <v>297.4472192296039</v>
       </c>
       <c r="N12" t="n">
-        <v>305.3197620407875</v>
+        <v>305.3197620407874</v>
       </c>
       <c r="O12" t="n">
-        <v>279.3079332101148</v>
+        <v>279.3079332101147</v>
       </c>
       <c r="P12" t="n">
-        <v>224.1692406234811</v>
+        <v>224.169240623481</v>
       </c>
       <c r="Q12" t="n">
-        <v>149.8512007695759</v>
+        <v>149.8512007695758</v>
       </c>
       <c r="R12" t="n">
-        <v>72.8866684336901</v>
+        <v>72.88666843369008</v>
       </c>
       <c r="S12" t="n">
-        <v>21.80524447701874</v>
+        <v>21.80524447701873</v>
       </c>
       <c r="T12" t="n">
-        <v>4.731763795603359</v>
+        <v>4.731763795603357</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07723227087491887</v>
+        <v>0.07723227087491884</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.98418391082137</v>
+        <v>0.9841839108213696</v>
       </c>
       <c r="H13" t="n">
-        <v>8.750289679848187</v>
+        <v>8.750289679848184</v>
       </c>
       <c r="I13" t="n">
-        <v>29.59709433633721</v>
+        <v>29.5970943363372</v>
       </c>
       <c r="J13" t="n">
-        <v>69.58180249507086</v>
+        <v>69.58180249507083</v>
       </c>
       <c r="K13" t="n">
         <v>114.3442761845191</v>
@@ -31934,25 +31934,25 @@
         <v>150.6069797350557</v>
       </c>
       <c r="O13" t="n">
-        <v>139.1099222313697</v>
+        <v>139.1099222313696</v>
       </c>
       <c r="P13" t="n">
         <v>119.0325704506136</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.41198184159673</v>
+        <v>82.4119818415967</v>
       </c>
       <c r="R13" t="n">
-        <v>44.25248748111359</v>
+        <v>44.25248748111357</v>
       </c>
       <c r="S13" t="n">
-        <v>17.15164142767787</v>
+        <v>17.15164142767786</v>
       </c>
       <c r="T13" t="n">
-        <v>4.205149437145852</v>
+        <v>4.205149437145851</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05368275877207479</v>
+        <v>0.05368275877207477</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.194069202744761</v>
+        <v>2.19406920274476</v>
       </c>
       <c r="H44" t="n">
-        <v>22.47001122260979</v>
+        <v>22.47001122260978</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58685293881747</v>
+        <v>84.58685293881746</v>
       </c>
       <c r="J44" t="n">
         <v>186.2188809964583</v>
       </c>
       <c r="K44" t="n">
-        <v>279.0938303486441</v>
+        <v>279.093830348644</v>
       </c>
       <c r="L44" t="n">
-        <v>346.2405757121442</v>
+        <v>346.2405757121441</v>
       </c>
       <c r="M44" t="n">
-        <v>385.2593538964563</v>
+        <v>385.2593538964562</v>
       </c>
       <c r="N44" t="n">
         <v>391.4932530187548</v>
       </c>
       <c r="O44" t="n">
-        <v>369.6759773839616</v>
+        <v>369.6759773839615</v>
       </c>
       <c r="P44" t="n">
-        <v>315.5098939412003</v>
+        <v>315.5098939412002</v>
       </c>
       <c r="Q44" t="n">
-        <v>236.9347906179035</v>
+        <v>236.9347906179034</v>
       </c>
       <c r="R44" t="n">
         <v>137.8231995569157</v>
       </c>
       <c r="S44" t="n">
-        <v>49.99735195754629</v>
+        <v>49.99735195754628</v>
       </c>
       <c r="T44" t="n">
-        <v>9.604537935015196</v>
+        <v>9.604537935015193</v>
       </c>
       <c r="U44" t="n">
         <v>0.1755255362195808</v>
@@ -34441,10 +34441,10 @@
         <v>1.173930517298766</v>
       </c>
       <c r="H45" t="n">
-        <v>11.33769736443809</v>
+        <v>11.33769736443808</v>
       </c>
       <c r="I45" t="n">
-        <v>40.41822175787419</v>
+        <v>40.41822175787418</v>
       </c>
       <c r="J45" t="n">
         <v>110.9106897944418</v>
@@ -34453,34 +34453,34 @@
         <v>189.5640344534591</v>
       </c>
       <c r="L45" t="n">
-        <v>254.8922379775238</v>
+        <v>254.8922379775237</v>
       </c>
       <c r="M45" t="n">
-        <v>297.447219229604</v>
+        <v>297.4472192296039</v>
       </c>
       <c r="N45" t="n">
-        <v>305.3197620407875</v>
+        <v>305.3197620407874</v>
       </c>
       <c r="O45" t="n">
-        <v>279.3079332101148</v>
+        <v>279.3079332101147</v>
       </c>
       <c r="P45" t="n">
-        <v>224.1692406234811</v>
+        <v>224.169240623481</v>
       </c>
       <c r="Q45" t="n">
-        <v>149.8512007695759</v>
+        <v>149.8512007695758</v>
       </c>
       <c r="R45" t="n">
-        <v>72.88666843369009</v>
+        <v>72.88666843369008</v>
       </c>
       <c r="S45" t="n">
         <v>21.80524447701873</v>
       </c>
       <c r="T45" t="n">
-        <v>4.731763795603358</v>
+        <v>4.731763795603357</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07723227087491885</v>
+        <v>0.07723227087491884</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9841839108213698</v>
+        <v>0.9841839108213696</v>
       </c>
       <c r="H46" t="n">
-        <v>8.750289679848185</v>
+        <v>8.750289679848184</v>
       </c>
       <c r="I46" t="n">
         <v>29.5970943363372</v>
       </c>
       <c r="J46" t="n">
-        <v>69.58180249507085</v>
+        <v>69.58180249507083</v>
       </c>
       <c r="K46" t="n">
         <v>114.3442761845191</v>
@@ -34541,25 +34541,25 @@
         <v>150.6069797350557</v>
       </c>
       <c r="O46" t="n">
-        <v>139.1099222313697</v>
+        <v>139.1099222313696</v>
       </c>
       <c r="P46" t="n">
         <v>119.0325704506136</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.41198184159671</v>
+        <v>82.4119818415967</v>
       </c>
       <c r="R46" t="n">
-        <v>44.25248748111358</v>
+        <v>44.25248748111357</v>
       </c>
       <c r="S46" t="n">
-        <v>17.15164142767787</v>
+        <v>17.15164142767786</v>
       </c>
       <c r="T46" t="n">
-        <v>4.205149437145852</v>
+        <v>4.205149437145851</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05368275877207478</v>
+        <v>0.05368275877207477</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.34017495839282e-12</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,13 +34859,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.45303179699432e-12</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.39660337769357e-12</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>68.53904305411226</v>
+        <v>68.53904305411217</v>
       </c>
       <c r="K11" t="n">
-        <v>136.0354271694068</v>
+        <v>136.0354271694067</v>
       </c>
       <c r="L11" t="n">
-        <v>192.9924059816525</v>
+        <v>192.9924059816524</v>
       </c>
       <c r="M11" t="n">
-        <v>235.5343022987291</v>
+        <v>235.534302298729</v>
       </c>
       <c r="N11" t="n">
-        <v>242.3747616809709</v>
+        <v>242.3747616809707</v>
       </c>
       <c r="O11" t="n">
-        <v>220.1121399598653</v>
+        <v>220.1121399598651</v>
       </c>
       <c r="P11" t="n">
-        <v>165.2084467002751</v>
+        <v>165.208446700275</v>
       </c>
       <c r="Q11" t="n">
-        <v>92.43609219951134</v>
+        <v>92.43609219951125</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>225.1682475921462</v>
+        <v>28.4662324611084</v>
       </c>
       <c r="K12" t="n">
-        <v>99.96709912012578</v>
+        <v>99.96709912012572</v>
       </c>
       <c r="L12" t="n">
-        <v>164.8318911206056</v>
+        <v>164.8318911206055</v>
       </c>
       <c r="M12" t="n">
-        <v>205.0600971802921</v>
+        <v>205.060097180292</v>
       </c>
       <c r="N12" t="n">
-        <v>226.4271905295252</v>
+        <v>219.9476491866207</v>
       </c>
       <c r="O12" t="n">
-        <v>186.6203743212259</v>
+        <v>186.6203743212258</v>
       </c>
       <c r="P12" t="n">
-        <v>137.0858758041665</v>
+        <v>137.0858758041664</v>
       </c>
       <c r="Q12" t="n">
-        <v>58.86304761366189</v>
+        <v>262.0446040876043</v>
       </c>
       <c r="R12" t="n">
-        <v>49.208795762774</v>
+        <v>49.20879576277397</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>39.50731502291176</v>
       </c>
       <c r="K13" t="n">
         <v>197.0059338713291</v>
       </c>
       <c r="L13" t="n">
-        <v>58.64626657694683</v>
+        <v>312.1068009817716</v>
       </c>
       <c r="M13" t="n">
-        <v>341.7602787893056</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="N13" t="n">
-        <v>335.6470141100145</v>
+        <v>173.6195115529613</v>
       </c>
       <c r="O13" t="n">
-        <v>303.4581717684486</v>
+        <v>49.11317223767183</v>
       </c>
       <c r="P13" t="n">
-        <v>30.84620807672956</v>
+        <v>240.1196065885718</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.86874585174921</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>99.96709912012575</v>
       </c>
       <c r="L15" t="n">
-        <v>164.8318911206056</v>
+        <v>220.5202282262841</v>
       </c>
       <c r="M15" t="n">
         <v>205.0600971802921</v>
@@ -35746,10 +35746,10 @@
         <v>137.0858758041664</v>
       </c>
       <c r="Q15" t="n">
-        <v>65.34258895656679</v>
+        <v>58.86304761366186</v>
       </c>
       <c r="R15" t="n">
-        <v>49.20879576277399</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>39.50731502291178</v>
       </c>
       <c r="K16" t="n">
-        <v>30.7509855763154</v>
+        <v>197.0059338713291</v>
       </c>
       <c r="L16" t="n">
         <v>312.1068009817717</v>
@@ -35819,7 +35819,7 @@
         <v>335.6470141100145</v>
       </c>
       <c r="O16" t="n">
-        <v>303.4581717684486</v>
+        <v>97.69590845052279</v>
       </c>
       <c r="P16" t="n">
         <v>29.50936781866768</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>225.1682475921462</v>
+        <v>28.46623246110843</v>
       </c>
       <c r="K18" t="n">
         <v>99.96709912012575</v>
@@ -35983,10 +35983,10 @@
         <v>137.0858758041664</v>
       </c>
       <c r="Q18" t="n">
-        <v>65.34258895656701</v>
+        <v>311.2533998503785</v>
       </c>
       <c r="R18" t="n">
-        <v>49.20879576277399</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>39.50731502291178</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>197.0059338713291</v>
+        <v>30.48565837367113</v>
       </c>
       <c r="L19" t="n">
         <v>312.1068009817717</v>
       </c>
       <c r="M19" t="n">
-        <v>63.97354201853743</v>
+        <v>341.7602787893056</v>
       </c>
       <c r="N19" t="n">
-        <v>111.1925029412041</v>
+        <v>335.6470141100145</v>
       </c>
       <c r="O19" t="n">
         <v>303.4581717684486</v>
       </c>
       <c r="P19" t="n">
-        <v>240.1196065885718</v>
+        <v>29.77469502131195</v>
       </c>
       <c r="Q19" t="n">
-        <v>85.8687458517492</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>103.9281970291245</v>
+        <v>225.1682475921462</v>
       </c>
       <c r="K21" t="n">
         <v>99.96709912012575</v>
       </c>
       <c r="L21" t="n">
-        <v>341.7602787893055</v>
+        <v>164.8318911206056</v>
       </c>
       <c r="M21" t="n">
         <v>205.0600971802921</v>
@@ -36220,7 +36220,7 @@
         <v>137.0858758041664</v>
       </c>
       <c r="Q21" t="n">
-        <v>58.86304761366186</v>
+        <v>114.5513847193407</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>39.50731502291178</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>197.0059338713291</v>
+        <v>30.48565837367113</v>
       </c>
       <c r="L22" t="n">
         <v>312.1068009817717</v>
       </c>
       <c r="M22" t="n">
-        <v>341.7602787893055</v>
+        <v>341.7602787893056</v>
       </c>
       <c r="N22" t="n">
         <v>335.6470141100145</v>
       </c>
       <c r="O22" t="n">
-        <v>97.69590845052279</v>
+        <v>303.4581717684486</v>
       </c>
       <c r="P22" t="n">
-        <v>29.50936781866768</v>
+        <v>29.77469502131195</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>148.4984966596878</v>
+        <v>332.3297627225473</v>
       </c>
       <c r="K23" t="n">
         <v>136.0354271694067</v>
       </c>
       <c r="L23" t="n">
-        <v>564.8140117429025</v>
+        <v>192.9924059816525</v>
       </c>
       <c r="M23" t="n">
-        <v>235.534302298729</v>
+        <v>423.5246419971195</v>
       </c>
       <c r="N23" t="n">
         <v>242.3747616809707</v>
@@ -36439,10 +36439,10 @@
         <v>225.1682475921462</v>
       </c>
       <c r="K24" t="n">
-        <v>311.1554065114414</v>
+        <v>512.5328688597484</v>
       </c>
       <c r="L24" t="n">
-        <v>564.8140117429025</v>
+        <v>164.8318911206056</v>
       </c>
       <c r="M24" t="n">
         <v>205.0600971802921</v>
@@ -36454,13 +36454,13 @@
         <v>186.6203743212259</v>
       </c>
       <c r="P24" t="n">
-        <v>137.0858758041664</v>
+        <v>286.4817383153824</v>
       </c>
       <c r="Q24" t="n">
         <v>386.5836164815864</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>49.20879576277399</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>332.3297627225473</v>
       </c>
       <c r="K26" t="n">
-        <v>424.2359818473786</v>
+        <v>136.0354271694067</v>
       </c>
       <c r="L26" t="n">
         <v>192.9924059816525</v>
@@ -36612,13 +36612,13 @@
         <v>220.1121399598652</v>
       </c>
       <c r="P26" t="n">
-        <v>165.2084467002751</v>
+        <v>353.1987863986654</v>
       </c>
       <c r="Q26" t="n">
         <v>423.6474776289626</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>100.2102149795824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>225.1682475921462</v>
       </c>
       <c r="K27" t="n">
-        <v>317.062368814682</v>
+        <v>512.5328688597484</v>
       </c>
       <c r="L27" t="n">
         <v>164.8318911206056</v>
@@ -36685,10 +36685,10 @@
         <v>205.0600971802921</v>
       </c>
       <c r="N27" t="n">
-        <v>564.8140117429023</v>
+        <v>219.9476491866208</v>
       </c>
       <c r="O27" t="n">
-        <v>186.6203743212259</v>
+        <v>336.0162368324418</v>
       </c>
       <c r="P27" t="n">
         <v>137.0858758041664</v>
@@ -36834,10 +36834,10 @@
         <v>332.3297627225473</v>
       </c>
       <c r="K29" t="n">
-        <v>324.0257668677968</v>
+        <v>564.8140117429025</v>
       </c>
       <c r="L29" t="n">
-        <v>192.9924059816525</v>
+        <v>383.6257615155808</v>
       </c>
       <c r="M29" t="n">
         <v>235.534302298729</v>
@@ -36852,10 +36852,10 @@
         <v>165.2084467002751</v>
       </c>
       <c r="Q29" t="n">
-        <v>423.6474776289626</v>
+        <v>92.43609219951131</v>
       </c>
       <c r="R29" t="n">
-        <v>100.2102149795824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>28.46623246110843</v>
+        <v>225.1682475921462</v>
       </c>
       <c r="K30" t="n">
         <v>512.5328688597484</v>
       </c>
       <c r="L30" t="n">
-        <v>164.8318911206056</v>
+        <v>314.2277536318215</v>
       </c>
       <c r="M30" t="n">
         <v>205.0600971802921</v>
@@ -36925,13 +36925,13 @@
         <v>219.9476491866208</v>
       </c>
       <c r="O30" t="n">
-        <v>564.8140117429024</v>
+        <v>186.6203743212259</v>
       </c>
       <c r="P30" t="n">
-        <v>432.7106848926679</v>
+        <v>137.0858758041664</v>
       </c>
       <c r="Q30" t="n">
-        <v>58.86304761366186</v>
+        <v>386.5836164815864</v>
       </c>
       <c r="R30" t="n">
         <v>49.20879576277399</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>68.53904305411223</v>
+        <v>332.3297627225473</v>
       </c>
       <c r="K32" t="n">
         <v>136.0354271694067</v>
       </c>
       <c r="L32" t="n">
-        <v>564.8140117429023</v>
+        <v>192.9924059816525</v>
       </c>
       <c r="M32" t="n">
         <v>235.534302298729</v>
@@ -37083,16 +37083,16 @@
         <v>242.3747616809707</v>
       </c>
       <c r="O32" t="n">
-        <v>300.07159356544</v>
+        <v>220.1121399598652</v>
       </c>
       <c r="P32" t="n">
-        <v>165.2084467002751</v>
+        <v>453.4090013782471</v>
       </c>
       <c r="Q32" t="n">
         <v>423.6474776289626</v>
       </c>
       <c r="R32" t="n">
-        <v>100.2102149795824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>225.1682475921462</v>
       </c>
       <c r="K33" t="n">
-        <v>99.96709912012575</v>
+        <v>512.5328688597484</v>
       </c>
       <c r="L33" t="n">
         <v>164.8318911206056</v>
@@ -37162,13 +37162,13 @@
         <v>219.9476491866208</v>
       </c>
       <c r="O33" t="n">
-        <v>564.8140117429023</v>
+        <v>186.6203743212259</v>
       </c>
       <c r="P33" t="n">
-        <v>564.8140117429023</v>
+        <v>286.481738315382</v>
       </c>
       <c r="Q33" t="n">
-        <v>142.6234753720119</v>
+        <v>386.5836164815864</v>
       </c>
       <c r="R33" t="n">
         <v>49.20879576277399</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>68.53904305411223</v>
+        <v>68.53904305411231</v>
       </c>
       <c r="K35" t="n">
         <v>136.0354271694067</v>
@@ -37387,7 +37387,7 @@
         <v>225.1682475921462</v>
       </c>
       <c r="K36" t="n">
-        <v>155.6554362258041</v>
+        <v>99.96709912012575</v>
       </c>
       <c r="L36" t="n">
         <v>164.8318911206056</v>
@@ -37405,7 +37405,7 @@
         <v>137.0858758041664</v>
       </c>
       <c r="Q36" t="n">
-        <v>58.86304761366186</v>
+        <v>114.55138471934</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37472,13 +37472,13 @@
         <v>312.1068009817717</v>
       </c>
       <c r="M37" t="n">
-        <v>341.7602787893055</v>
+        <v>63.97354201853743</v>
       </c>
       <c r="N37" t="n">
-        <v>67.61137583265415</v>
+        <v>111.1925029412032</v>
       </c>
       <c r="O37" t="n">
-        <v>69.25256210622972</v>
+        <v>303.4581717684486</v>
       </c>
       <c r="P37" t="n">
         <v>240.1196065885718</v>
@@ -37560,7 +37560,7 @@
         <v>220.1121399598652</v>
       </c>
       <c r="P38" t="n">
-        <v>165.2084467002751</v>
+        <v>165.2084467002752</v>
       </c>
       <c r="Q38" t="n">
         <v>92.43609219951131</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>39.06340502864528</v>
+        <v>225.1682475921462</v>
       </c>
       <c r="K39" t="n">
-        <v>341.7602787893057</v>
+        <v>99.96709912012575</v>
       </c>
       <c r="L39" t="n">
         <v>164.8318911206056</v>
@@ -37639,13 +37639,13 @@
         <v>186.6203743212259</v>
       </c>
       <c r="P39" t="n">
-        <v>137.0858758041664</v>
+        <v>143.5654171470709</v>
       </c>
       <c r="Q39" t="n">
         <v>58.86304761366186</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>49.20879576277399</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>39.50731502291178</v>
       </c>
       <c r="K40" t="n">
-        <v>30.75098557631562</v>
+        <v>197.0059338713291</v>
       </c>
       <c r="L40" t="n">
-        <v>312.1068009817717</v>
+        <v>77.90119131955278</v>
       </c>
       <c r="M40" t="n">
-        <v>341.7602787893057</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="N40" t="n">
-        <v>335.6470141100145</v>
+        <v>67.61137583265415</v>
       </c>
       <c r="O40" t="n">
         <v>303.4581717684486</v>
       </c>
       <c r="P40" t="n">
-        <v>29.50936781866768</v>
+        <v>240.1196065885718</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>85.8687458517492</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>28.46623246110843</v>
+        <v>225.1682475921462</v>
       </c>
       <c r="K42" t="n">
-        <v>99.96709912012575</v>
+        <v>106.4466404630302</v>
       </c>
       <c r="L42" t="n">
         <v>164.8318911206056</v>
@@ -37879,7 +37879,7 @@
         <v>137.0858758041664</v>
       </c>
       <c r="Q42" t="n">
-        <v>262.0446040876048</v>
+        <v>58.86304761366186</v>
       </c>
       <c r="R42" t="n">
         <v>49.20879576277399</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>39.50731502291178</v>
       </c>
       <c r="K43" t="n">
-        <v>30.48565837367113</v>
+        <v>197.0059338713291</v>
       </c>
       <c r="L43" t="n">
         <v>312.1068009817717</v>
       </c>
       <c r="M43" t="n">
-        <v>341.7602787893057</v>
+        <v>341.7602787893055</v>
       </c>
       <c r="N43" t="n">
-        <v>250.0435954609098</v>
+        <v>67.61137583265415</v>
       </c>
       <c r="O43" t="n">
-        <v>303.4581717684486</v>
+        <v>69.25256210622972</v>
       </c>
       <c r="P43" t="n">
-        <v>29.50936781866768</v>
+        <v>240.1196065885718</v>
       </c>
       <c r="Q43" t="n">
         <v>85.8687458517492</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>68.53904305411223</v>
+        <v>68.53904305411217</v>
       </c>
       <c r="K44" t="n">
         <v>136.0354271694067</v>
       </c>
       <c r="L44" t="n">
-        <v>192.9924059816525</v>
+        <v>192.9924059816524</v>
       </c>
       <c r="M44" t="n">
         <v>235.534302298729</v>
@@ -38031,13 +38031,13 @@
         <v>242.3747616809707</v>
       </c>
       <c r="O44" t="n">
-        <v>220.1121399598652</v>
+        <v>220.1121399598651</v>
       </c>
       <c r="P44" t="n">
-        <v>165.2084467002751</v>
+        <v>165.208446700275</v>
       </c>
       <c r="Q44" t="n">
-        <v>92.43609219951131</v>
+        <v>92.43609219951125</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>28.46623246110843</v>
+        <v>225.1682475921462</v>
       </c>
       <c r="K45" t="n">
-        <v>303.1486555940679</v>
+        <v>106.4466404630301</v>
       </c>
       <c r="L45" t="n">
-        <v>164.8318911206056</v>
+        <v>164.8318911206055</v>
       </c>
       <c r="M45" t="n">
-        <v>205.0600971802921</v>
+        <v>205.060097180292</v>
       </c>
       <c r="N45" t="n">
-        <v>219.9476491866208</v>
+        <v>219.9476491866207</v>
       </c>
       <c r="O45" t="n">
-        <v>186.6203743212259</v>
+        <v>186.6203743212258</v>
       </c>
       <c r="P45" t="n">
         <v>137.0858758041664</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.86304761366186</v>
+        <v>58.86304761366183</v>
       </c>
       <c r="R45" t="n">
-        <v>49.20879576277399</v>
+        <v>49.20879576277397</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>39.50731502291178</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>197.0059338713291</v>
       </c>
       <c r="L46" t="n">
-        <v>58.6462665769468</v>
+        <v>312.1068009817716</v>
       </c>
       <c r="M46" t="n">
-        <v>341.7602787893055</v>
+        <v>63.9735420185374</v>
       </c>
       <c r="N46" t="n">
-        <v>335.6470141100145</v>
+        <v>150.699817964115</v>
       </c>
       <c r="O46" t="n">
-        <v>54.67745823369417</v>
+        <v>303.4581717684485</v>
       </c>
       <c r="P46" t="n">
         <v>240.1196065885718</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.8687458517492</v>
+        <v>85.86874585174918</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
